--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_147.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_147.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32530-d77344-Reviews-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>217</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Courtyard-By-Marriott-John-Wayne-AirportOrange-County.h2717.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_147.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_147.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1007">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>MileageMaster</t>
+  </si>
+  <si>
     <t>06/29/2018</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t>After staying at the hotel during a business trip in April of 2018, I arrived home to discover I had received bed bugs from this hotel. I had a cluster rash on my arms and legs and had to see a walk-in clinic for treatment. I contacted the hotel and they brushed me off and did not care. I checked online and this hotel has a history of bed bug problems but refuses to take accountability. The hotel itself has a nice lobby and restaurant, but the rooms and hallways are extremely dated. Due to my bed bug encounter, I would not recommend this hotel by ANY means. More</t>
   </si>
   <si>
+    <t>Lisa H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r572203086-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -213,6 +219,9 @@
     <t>At arrival: Empty soap  bottle in shower , refrigerator door not shut tightly so wasn’t cold, hairdryer had dirty handle , ducks swimming in pool waddling around pool  duck droppings (Even though aviary enthusiast ... concern is sanitation,illness,risk of exposure) Bed  very comfortable and clean - great mattress Creeped out when received call about midnight asking if I was alone and did I want company??!!  I hung up phone thinking wrong room (awoke from sleep) then call to desk to report after thinking  couldn’t trace origin, was in-house call All reported to desk, receptive to input, was told notifying housekeeping manager, no information regarding midnight call Offered idea used at Beach  properties to keep aviary friends in safe locations - seemed receptive Good locationMore</t>
   </si>
   <si>
+    <t>goathletego</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r568961313-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -240,6 +249,9 @@
     <t>Don't book any rooms here. Housekeeping are thieves. I booked a room for the weekend and left a bottle of $85 cologne in the room when I checked out. I called to let them know and the front desk man said they found it and put it housekeeping. When I called to pick up the cologne, Louis in housekeeping suddenly didn't have the cologne. When I talked to Jim, he changed his story to saying they never found it. I would not trust these guys ever. I am currently on hold with their customer service department for this matter, I have been waiting for 30 minutes so far. They really have no value in their customers other than to pay for rooms.More</t>
   </si>
   <si>
+    <t>gotafly1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r549863681-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -267,6 +279,9 @@
     <t>The property follows the same theme as other Courtyards. The good: Fairly clean.Internet speed.The bad: Our sink is broken. We asked the staff to fix it at 8am. As of 9pm it is still broken. We asked for additional towels to be left in our room for the second morning but the did not leave any. Tonight we have a large group in the courtyard below our room. It's 9:30pm and they are drinking and loud. We called the front desk to ask if they could do anything. We were told that it would be impossible for the hotel to do anything "as they have no control of the guests using the courtyard". For $150 bucks a night I would really expect better service than this. I would look elsewhere unless you are desperate as there are a huge amount of hotels in this price range that will be better.More</t>
   </si>
   <si>
+    <t>Linda F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r538287091-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -288,6 +303,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>785yiy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r522065400-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -315,6 +333,9 @@
     <t>We stayed in this Courtyard hotel for one night. As we expected, there's no free breakfast but it's not an issue at all. There are so many nice places in Costa Mesa/Irvine area, such as JJ Bakery or 85C Bakery.We heard kids running around at the night. Probably will not come back.More</t>
   </si>
   <si>
+    <t>Bill S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r512144962-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -345,6 +366,9 @@
     <t>My regular Irvine hotels were booked out for a convention so I stayed here.Rooms need to be remodeledCarpets need replacingMildew smell in many placesFront desk screwed up my billing and my wake up call - trainees need better supervisionNever again.More</t>
   </si>
   <si>
+    <t>Thomas N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r501083618-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -360,6 +384,9 @@
     <t>This was our second stay at this hotel and it was even better than the first time! We stayed on the ground floor and had a room facing the courtyard. Spent several relaxing evenings on the room's patio and courtyard.  We will definitely stay again as it is easy to get to from the freeway and close to UC Irvine. Staff at the Bistro was always pleasant and helpful no matter what time.</t>
   </si>
   <si>
+    <t>Educ8mode</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r493470549-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -376,6 +403,9 @@
   </si>
   <si>
     <t>June 2017</t>
+  </si>
+  <si>
+    <t>forteiii</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r483056086-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
@@ -413,6 +443,9 @@
 3- The showers do have (or at least in my room) "low flow" shower heads, which really doesn't...I stayed here 4 nights, while in town on business. I found the property to be immaculately maintained, both inside and out.This is a very good Courtyard property with plenty of balcony and walk out rooms. The rooms are of a prior generation décor (not the latest silver &amp; grey motif), but still very nice.I rated them a "4" due to the excellent condition of the property, friendly professional staff, and free parking (separate parking deck behind the property). Further, the property is only one exit south of the Orange County Airport, and it's really convenient to the interstate.The location is good, you can walk to a couple or restaurants, but you are only a 5 minute drive to just about any type of food that you would like.The only drawbacks to the property are the facts that:1- The Bistro doesn't open early enough for a west coast "airport hotel" property... I know, you have to have your Starbucks extortion money. 2- They kind of "snookered" me on-line with the rate. There was a low "teaser" rate at the first part of the week that sky-rocked to almost $200 per night by Wednesday night, so check the rates closely, when booking. This seems to have become a pattern of many Marriott Properties lately... not just this property.3- The showers do have (or at least in my room) "low flow" shower heads, which really doesn't save them any water. It just makes taking a shower 4 or 5 times longer (at least).Overall, I really liked the hotel. As a Platinum Elite / Platinum for Life status holder with the Marriott Brand, I will probably stay here again, when in the area for business.More</t>
   </si>
   <si>
+    <t>HemisFamily</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r475532294-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -431,6 +464,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>claire-dogs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r475025662-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -473,6 +509,9 @@
     <t>February 2017</t>
   </si>
   <si>
+    <t>nofatboys</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r462396993-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -497,6 +536,9 @@
     <t>no obvious construction but it is now 1 am and still trying to get to sleep and it is like someone is picking up and moving an empty metal dumpster every 5 minutes - have stayed here before and was happy but this is beyond ridiculousMore</t>
   </si>
   <si>
+    <t>GolfDave123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r451802169-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -515,6 +557,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>Arthur Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r449323415-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -533,6 +578,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r447947613-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -551,6 +599,9 @@
     <t>When we travel to southern California we stay at this hotel to ensure a calm environment and a one hour drive away from major theme parks. The rooms have always been clean and have enough outlets for all your devices. You have a good size television and enough channels for all the family to enjoy. In the lobby you have a luxurious waiting area with a Starbucks. The pool area is organized and attractive for kids to use. The Spa room has dumbbells and 3 cardio machines. The downsides, first, the parking is located in the back of the building. If you have small kids or elderly, you might face many challenges when moving to your room. Second, all the elevators are not functioning which again might be a change for certain people. Finally, restaurants and gas stations are not nearby so it can be challenging. As I stated, we always stay there due to its privacy and safety. More</t>
   </si>
   <si>
+    <t>TWinster13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r447154927-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -569,6 +620,9 @@
     <t>Stayed for a week on business in December. Location of the Courtyard is OK, with shops &amp; restaurants within a few minutes drive. Staff were really friendly &amp; helpful, and check-in was very straightforward.The bedroom &amp; bathroom were big (by European standards) with a kingsize bed, sofa, decent size desk and a huge TV. Bathroom had a small tub with a decent shower over it. There was a small bar serving snacks &amp; a limited breakfast. I tried the braeakast, but choice was limited &amp; price  meant not-so-good value. Also a small Gym &amp; pool which were free to use. Free covered parking and an adequate Wi-Fi were also included in the room rate. Overall, I would recommend this as a "much better value" alternative to more glitzy hotels, and convenient location or the airport (they run a shuttle bus), Irvine, and the 405 freewayMore</t>
   </si>
   <si>
+    <t>Ian A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r433320584-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -590,6 +644,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Eric C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r431677284-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -605,6 +662,9 @@
     <t xml:space="preserve">My mom and I were surprised at how comfortable the beds were! We both slept so soundly which is a rare treat for us.  The bistro meals we had were fresh and tasty.  The coffee barista could use more training, otherwise it was one of the best rooms of our travels. </t>
   </si>
   <si>
+    <t>ejg48ak</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r427089397-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -623,6 +683,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>8M6E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r417662687-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -650,6 +713,9 @@
     <t>My past 2 stays at the courtyard have been subpar. Both times I was emailed a review survey which I completed and was offered an apology from irvine and a "you're a crazy liar" From ATL. You'd think if you take time from your day to complete their satisfaction survey and reposed with why you were not satisfied that  they could throw a few bonus points in your account and make you feel like your opinion mattered. I don't see why they send out the surveys if they don't even acknowledge when the stay wasn't up to par. The courtyard in Atlanta left a really salty taste in my mouth but this review is for Irvine. The front desk staff was excellent and friendly at check in, they always are and they're not the reason I avoid Marriott courtyards whoever possible. My room was not fully cleaned. There were dirty towels on my balcony and also dirty towels all over the whirlpool and pool area. This is a massive improvement from the conditions of the Atalanta courtyard so I can't knock too many points from Irvine but I can say that guests pay attention to the details and dirty towels everywhere isn't appealing.More</t>
   </si>
   <si>
+    <t>DrMarkES</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r417286175-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -665,6 +731,9 @@
     <t>This hotel is easy to access from freeway, local restaurants as easy to reach, and it is only 10 minutes to the airport. My first room had some malfunctions and the staff was very quick to arrive at my room and move me to a room across the hallway.The rooms are spacious and comfortable. The beds are bit used and slope to the center, but still comfortable.  The Bistro offered great breakfast options.Being on a major corner did cause a lot of rush hour traffic noise in the morning which was annoying, especially when I had an interior courtyard room.Highly recommend it!</t>
   </si>
   <si>
+    <t>OliverTheTraveller</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r405326542-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -680,6 +749,9 @@
     <t>If you are only in town for the evening, this hotel is great. It works as a nice place to stay before you leave for the airport or right after you get in from the airport. The John Wayne shuttle service is on time, so do not be late or you will be left behind if there are other passengers waiting. The staff is friendly and the property is clean and in a good, safe area.</t>
   </si>
   <si>
+    <t>d207ak</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r391059566-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -719,6 +791,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>prutchi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r382326233-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -746,6 +821,9 @@
     <t>Basic service hotel, but expensive due to proximity to John Wayne Airport.  Front desk personnel are not attentive and some downright mean.Showers and sinks have the stingiest possible flow restrictors that I've ever experienced in CA - barely stronger than those cooling misters at amusement parks (hint, unscrew the shower head for a "hose" shower).More</t>
   </si>
   <si>
+    <t>kkrezz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r362905159-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -773,6 +851,9 @@
     <t>This Courtyard is only a couple miles from John Wayne Airport. And it is only 8 miles to Newport Beach and 14 miles from Laguna Beach. Hotel was very clean, the room was very large and very comfortable. Bathroom was clean and roomy. The service/staff was exceptional! It has a pool, and an outdoor lounger areaMore</t>
   </si>
   <si>
+    <t>FRW99</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r362168841-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -794,6 +875,9 @@
     <t>This has been my Go To hotel when I fly into John Wayne.   Typical Courtyard, but very close to the airport and major freeways.  Friendly staff.  Cool fire pit area in patio is nice on summer nights.  Free parking is also a nice perk.More</t>
   </si>
   <si>
+    <t>KirkWS</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r359203006-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -809,6 +893,9 @@
     <t>Checked in for the night before a trip to Mexico. Asked about leaving my car while I was away for 5 days. They let me leave it in there garage and gave me a shuttle ride to the airport. Didn't charge me for the service. The room was perfect and they have a nice little café that was better than expected. Counter people were very helpful when I needed to check on a reservation change.</t>
   </si>
   <si>
+    <t>Courtney M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r346898585-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -830,6 +917,9 @@
     <t>I stayed here during a business trip not too long ago and I had a wonderful stay.  The hotel staff were all very kind and accommodating, especially when I arrived quite late at the hotel for my stay.  The suite was very clean and overlooked the outdoor pool which was just gorgeous.  It also had a private, outdoor patio with some chairs so one could sit and enjoy the view. Outside, there are places to sit around the pool, along with a large and comforting fire pit with gorgeous tiles.  Inside the main lobby, is the typical Courtyard dining area with comfortable seating, computers, etc.  The food was delicious and everything was made very quickly, especially in the mornings when everyone was in a rush to go to their respected places.  They also brew Starbucks, and I am a much happier person when I can get my Chai Tea in the mornings.I honestly have nothing bad to say, as this was a great hotel with great staff and I had a relaxing time!More</t>
   </si>
   <si>
+    <t>worldtraveler2392123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r345354299-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -854,6 +944,9 @@
     <t>Old, run down hotel. Some of the rooms and some of the corridors smell like toilette. Management is nice and understands the problem and will address it. The location is central but if you're on the wrong side you get the street noise. For those of us who've stayed at Marriotts all over the place, don't expect the same quality, mainly because of the smell which probably has to do with the pipes, plumbing.More</t>
   </si>
   <si>
+    <t>TonyNG</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r339821711-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -878,6 +971,9 @@
     <t>We stayed at Courtyard for 3 nights, the hotel located in well lit, quite and safe business area..The check in was seamless. Staff was friendly, helpful , the room was clean and well maintained, wifi excellent, would stay here again.More</t>
   </si>
   <si>
+    <t>mlbourgault</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r331069470-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -902,6 +998,9 @@
     <t>I just needed a place to stay for one night near airport. It has a lovely lobby and rooms are nice. Carpeting in areas is a little run down. My shower didn't work and the staff comped me a breakfast and got me a key to next room over which took this from a three to a four. Excellent staff. I'll stay here again. More</t>
   </si>
   <si>
+    <t>I13JAmarym</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r330774302-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -923,6 +1022,9 @@
     <t>Over the last 8 years, I have stayed on and off at the John Wayne Airport Courtyard by Marriott.  They have done some more updating and the old, dirty drapes are gone.  Furnishings are much more stream lined and clean.  It remains a comfortable place to stay and usually it is very fairly priced.  it is also safe.More</t>
   </si>
   <si>
+    <t>rumasan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r322829892-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -944,6 +1046,9 @@
     <t>As many people have mentioned before this is an old property. But the advantage is its proximity to airport, office buildings and also eating joints. When I went to this place in early October 2015, there was construction work going on in this place. The first thing which I noticed was the parking lot building was located behind the hotel. The time I was there, I guess the property was full and all my requests in terms of room requirements (location, floor etc.) were turned down. I had to live with what was available. I do not have anything to complain about the service. Overall, it is a nice place, but will I chose this hotel again if I am visiting this area again... probably not.More</t>
   </si>
   <si>
+    <t>Summer F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r319509998-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -962,6 +1067,9 @@
     <t>Clean, spacious, great views, the noise cancellation between the walls are phenomenal. I wish they did have a microwave tho, but they've got a fridge. Balcony overlooking the pool,  STARBUCKS, opened all day, a nice Bistro, stylish furniture down in lobby and did I say clean? I'm a very observant, meticulous, over analyzing 29 year old female and I guess u can say I'm a little clean freak.. I always have to carry Lysol wipes to every hotel I go to and I personally wipe down the phones, doorknobs, light switches, remotes, etc before I use them and this place passed the "white glove test", and that's clean. Definitely passed Summer's (my) Standards. More</t>
   </si>
   <si>
+    <t>Karen and Bill I</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r311378045-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -989,6 +1097,9 @@
     <t>This was the last night stay in California before heading back to the east coast.  Not a typical airport hotel.  The rooms, and overall appearance was good.  The front desk staff, drivers, and Bistro were more than happy to help.  We appreciate all the great customer service from Calli, Jen, Elizabeth.  You made our last night wonderful.  A great hotel to stay at if you want to be near the airport.More</t>
   </si>
   <si>
+    <t>getfit805</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r310974119-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -1007,6 +1118,9 @@
     <t>Drive into the parking lot and hotels landscape was nicely maintained. Front desk was fantastic really made you feeling good. They were very accommodating...the room was good clean sheets and looks like the cleaning staff is very detail not even any dust.More</t>
   </si>
   <si>
+    <t>Michael F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r303903601-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -1031,6 +1145,9 @@
     <t>I stayed at this hotel due to its proximity to the airport. Parking is free and it's close to the airport which are both positives.  The thing I noticed most is the lack of cleanliness of the hotel. This hotel is still outfitted in the older orange brown theme and the carpets look stained and dirty to me. My room was also disappointing. The floor of my bathroom was not clean and needed to be deeply sanitized. Again, if you need to travel in and out of John Wayne, this hotel is very convenient. Again, don't expect a first rate Courtyard. But it is an ok place to stay.  More</t>
   </si>
   <si>
+    <t>Anna M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r300252526-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -1058,6 +1175,9 @@
     <t>The guest room was cool, quiet and clean; a welcome respite from the traffic around Irvine. The property was well maintained and offered an onsite Starbucks. It is a great hotel for easy access to spots around Irvine.More</t>
   </si>
   <si>
+    <t>BCL37072</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r297684905-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -1076,6 +1196,9 @@
     <t>Stayed 4 days. Comfy bed, clean room, and everything in good working order. Starbucks downstairs was so convenient. Free parking in their own garage. Nice pool area.. Should think about having a restroom there so you don't have to run upstairs in a wet swimsuit. Every room has a balcony. The bathroom was a little tight, and the water pressure was not do great. Overall, a great stay! More</t>
   </si>
   <si>
+    <t>mylifeyay</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r288746179-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -1091,6 +1214,9 @@
     <t>Location is best suited for those doing business or visiting friends/relatives nearby, or else there isn't much to do. Nearest shopping is about 10 minutes away.Very standard experience, consistent with what you would expect from a Courtyard hotel.Free parking is available at the front porch and the parking structure behind - look out of the designated structure for Courtyard guests to avoid getting charged for parking.</t>
   </si>
   <si>
+    <t>deamole</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r284704195-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -1118,6 +1244,9 @@
     <t>This Courtyard by Marriott is just a few miles from John Wayne Airport and is conveniently located in the business district on the west side of Irvine. It is also relatively close to Newport Beach, Costa Mesa (including South Coast Plaza), and Santa Ana.The lobby area is similar to most Courtyard by Marriott's, and includes a Bistro area, a small lounge area, and a decent size television. The outdoor area has a pool, additional seating, and a firepit.The fixtures in the room were a bit dated, and the shower head was not near as good as most Marriott properties. The bed was very comfortable. The sound proofing was not that great as I could hear the TV from the next room till it was turned off after 1:00 am.More</t>
   </si>
   <si>
+    <t>Andreas M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r284068863-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -1136,6 +1265,9 @@
     <t>Courtyard by Marriott, Irvine, California by John Wayne Airport in Orange County; address: 2701 Main Street, Irvine, CA 92614, Telephone: (949) 757-1200. This is the place to stay if you and family are in Irvine, California. Highly recommend this establishment, the staff is exceptionally friendly and helpful, the rooms and bathrooms were very clean; the pool and Jacuzzi areas also very clean and kept with extra towels to be used by guests. This hotel is a non-smoking facility!! What is really awesome is that the pool and Jacuzzi areas close at 11:00 pm. The grounds are well maintained and clean. The breakfast is extra, but they do have continental or full breakfast, also A La Carte. And for the price value it is exceptionally Worth it and very reasonable. Also ample parking and it is Free of charge!!More</t>
   </si>
   <si>
+    <t>JH010857</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r275174231-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -1163,6 +1295,9 @@
     <t>The room we stayed in was a beautiful room, clean, and smells clean.  The maids refresh the rooms during our stay and I would say they do a good job.  Parking was not a problem.  The price per night was reasonable.  The bed was very comfortable and the comforter was soft and clean.  I love the white bed cover.  Where did they buy it?  I want one.More</t>
   </si>
   <si>
+    <t>ssrockies44</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r274821008-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -1181,6 +1316,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>susanintheskies</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r273369542-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -1196,6 +1334,9 @@
     <t>After several hours of airline delays I ended up at this Marriott for the night. Starting with the shuttle driver and the front desk staff ; this hotel stay was above average. It turned a hectic day into a pleasant and satisfied evening.</t>
   </si>
   <si>
+    <t>Jenn D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r267615969-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -1220,6 +1361,9 @@
     <t>This is a useless hotel. I wouldn't stay here unless you have a meeting RIGHT at the hotel. I was in town for work -- my meetings were being held about 1 mile away, so I figured the Courtyard would be convenient and a nice option. And to be fair, it is similar to every other Courtyard I've stayed at - felt like deja vu walking into my room, it was just like one in San Francisco. Reasonable bed, clean, simple.But getting to and from the airport was another matter. I was just in town for 1 night for meetings, and figured I'd just use the hotel shuttle and cabs to get around -- now I know it would have been infinitely easier to rent a car. The shuttle option from the airport was nonexistent, and I had to take a cab. When I was headed to my meeting the next morning I decided to take a cab instead of walking (I inquired whether their shuttle might drop me off, since it was just 1 mile away -- no, no it could not.) -- I called down to the front desk 30 minutes ahead, and asked them to order a cab for me, for 7:30am. Should have been plenty of time, but nothing arrived until 7:45, which makes me think that they forgot to call until they saw me in the lobby at 7:30. Useless and inconvenient!More</t>
   </si>
   <si>
+    <t>Tom H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r264423931-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -1244,6 +1388,9 @@
     <t>Stayed at this location after a late flight to the west coast. Just off a main road that had some good restaurants, I stopped by a subway to grab a quick bite on way to hotel.  Got to hotel around 10 and parking is a little funky. When you pull in front there was short term parking available. When you drive around the back of the building there is a garage so I pulled in and wound up paying $12 to park for the night. As I walked to the hotel there is a Marriott garage just past the one I pulled into, not sure if there is a charge (assume so) but signage was not obvious.  Then I walked around hotel to realize I came around the wrong side and had to drag by bag 3/4 around the hotel to get to the front desk.  After a long flight it would have been nice not to do that. Really need to increase the signs around this property, so tight so unless you walk in and ask you are guessing.Hotel was nice, clean and friendly. If you know about the parking its a good place to stayMore</t>
   </si>
   <si>
+    <t>Randy H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r260242867-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -1262,6 +1409,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>Varsha L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r250566355-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -1289,6 +1439,9 @@
     <t>We were here for MLK weekend. Stayed for a 3 day spiritual conference which was within a 5 minute drive. We drove from San Francisco, CA.  We loved the location as it was near freeway 405 and a lot of vegan/vegetarian restaurants.  It was good that they had free parking, since many of the hotels in Irvine charge for parking. They also had free wifi. Loved the reception area, rooms were good. The only negative was that they didn't have a safe box for valuables so we had to take all our valuables everywhere we went and no free breakfast.More</t>
   </si>
   <si>
+    <t>Asad K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r247195827-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -1316,6 +1469,9 @@
     <t>If you like the smell of McDonalds than this is the place for you as the smell goes throughout the hotel including the rooms. We had four rooms, one had hair in the sheets and one had dirt in the fridge. The only good part about this hotel is the free wifi. The business center is a very limited software. You cannot open your email if you have "too many emails" according to the front desk lady. And you can forget about sending an email to as I tried 3 of the four computers and the constantly exited out as soon as I was ready to send it. I wouldnt recommend this place to anyoneMore</t>
   </si>
   <si>
+    <t>Enjoy2travel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r240005422-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -1340,6 +1496,9 @@
     <t>Only stayed for one night so we could make our early morning flight. Liked how convenient it was to John Wayne Airport and the free shuttle service - couldn't be more than 10 minutes away.  Room was very comfy - told my husband I sure like Courtyard beds.  Had a sandwich in their Bistro Restaurant for dinner - very good and a quick breakfast before heading to the airport.  Everything felt updated and clean.More</t>
   </si>
   <si>
+    <t>Karen R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r233837203-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -1367,6 +1526,9 @@
     <t>Super quiet, great service, clean, easy parking and super easy access to John Wayne airport (no need to get on the freeway).  Bistro/Starbucks on site - always important :) .  Will definitely stay here again when flying out of SNA.More</t>
   </si>
   <si>
+    <t>Waleed H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r232734514-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -1385,6 +1547,9 @@
     <t>Special thanks to Sophia, Cindy and Francis they mad our stay more fun and exciting  we amended our stay 3 times and mad it's so easy to remain a gust. The view and environment all day and night so Cousy and friendly. I will sure visit again soon.    More</t>
   </si>
   <si>
+    <t>OSF35</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r230418700-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -1412,6 +1577,9 @@
     <t>I've stayed at more than a few Courtyard Marriotts and some are this good, and some are surprisingly bad (i'd stayed at better budget hotels). This is at the top end, for sure. Very clean. Super great location if you're flying out of John Wayne (or just getting around the OC). Great parking, check in was a breeze, they have a vending type area to buy snacks and a bar/restaurant that's open most of the time. Rooms are on the average to slightly small side (but who needs a huge hotel room?), beds are comfy, huge tvs (maybe a bit too big for size of room). Clean, bright bathrooms. Free wifi!--and not 'free in lobby' or any of that normal hotel smoke and mirrors. They also have a computer set up so it's easy to print out boarding tickets or anything else you may need.Just a really great hotel for travelers.If you're not a rewards member, book online with hotel finders, you'll find way better prices if you prepay. Rates are all over the board with this hotel.More</t>
   </si>
   <si>
+    <t>RGCertified</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r227774012-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -1436,6 +1604,9 @@
     <t>Very friendly staff. They have shuttle for local offices. Stayed there only for one night and hotel was very clean and modern and bed is comfortable. Wifi signal was not very strong and kept disconnecting.More</t>
   </si>
   <si>
+    <t>jeffl69656</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r227100688-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -1463,6 +1634,9 @@
     <t>Hotel-5 on a 10 scale but the employees were nice to chat with. Pool nothing special and the hotel was about 8 miles from the airport . clean, but the price was excessive for what was received.  It was however convenient for visiting our familyMore</t>
   </si>
   <si>
+    <t>RN90</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r224699459-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -1481,6 +1655,9 @@
     <t>I have never stayed at Courtyard Marriott. I am a bit of a hotel snob, I usually stay at 4/5 star hotels. This time, we just needed to stay overnight after a wedding we attended. The hotel is very clean and modern. The bed is comfortable. The sheets, comforter, towels, shower curtain is bright white. The bathroom tile grout all over are very white. This is a very well maintained hotel. I would definitely consider staying at Courtyard for short term needs in the future.More</t>
   </si>
   <si>
+    <t>Alohaloll</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r207691987-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -1496,6 +1673,9 @@
     <t>Location was perfect and great service!! Room was clean and had a great experience!! The rate was great and I had compared it to other hotels around it and it was the best price! I highly recommend staying here if you are ever in the area!</t>
   </si>
   <si>
+    <t>Chris S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r206561571-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -1514,6 +1694,9 @@
     <t>Sunday night May 18th, 2014 woken up early morning with 30 to 40 bites on my back, a cluster of red bumps, itchy and bleeding.  I don't feel good, and will be going to doctor tomorrow.  Front desk manager, Jennifer Seibert would not even talk with me face to face in the morning.  They called me to say they had housekeeping investigate, and of course they didn't find anything.  My emails to the General Manager, Karlyn Bretz have been ignored with no reply.  If you search similar complaints from Marriott you will read how it is protocol for all Marriott hotels, they simply deny all claims and responsibility.   I will no longer be a customer of Marriott hotels.More</t>
   </si>
   <si>
+    <t>Sara L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r205950432-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -1529,6 +1712,9 @@
     <t>In the OC you have overpriced Irinve Marriott and several other lack luster courtyard hotels, but this one was my favorite.  Parking is free (Irvine $20) rooms are spacious, and the pool area is sunny with good public areas.</t>
   </si>
   <si>
+    <t>mbark81</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r201617896-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -1547,6 +1733,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>Anthony C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r200845640-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -1562,6 +1751,9 @@
     <t>This is a very good hotel. The hotel was well maintained. The location was excellent to beaches, restaurants, airport,etc. The staff was very nice and pleasant. The room was large and very nice.It was also very clean. I would definitely stay here again.</t>
   </si>
   <si>
+    <t>CAtortoise</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r200730425-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -1580,6 +1772,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>Jim S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r198715641-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -1598,6 +1793,9 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>Matt T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r195337488-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -1622,6 +1820,9 @@
     <t>Free beer Monday through Thursday in their cafeteria area.Excellent location down the street from a very busy Asian shopping center that includes: 85C a well known Asian bakery, lollicup, Guppy House, and many more.Rooms have an odd bathroomsetup but the staff is fantastic and very friendly.More</t>
   </si>
   <si>
+    <t>Cliff J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r195272175-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -1643,6 +1844,9 @@
     <t>The rooms were your typical Courtyard rooms, perhaps a little larger than some of the newer hotels.  There was some construction but they made sure it did not interfere with our stay.  Parking was free and very convenient.  The staff were very helpful and friendly.  One strange but very inconvenient quirk to this hotel - no ice machines.  We had to go up to the front desk each night to fill up our ice bucket.  They were happy to do it but we were in the back of the hotel and it was a bit of a walk.More</t>
   </si>
   <si>
+    <t>Nate M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r188256625-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -1665,6 +1869,9 @@
   </si>
   <si>
     <t>Came in for one day for business and his hotel was real convenient coming out of Orange County Airport. Rooms were really nice and room service was very good. I had the hamburger upon arrival, but honestly it needed much more taste. Some subtle seasoning would be nice. No reason not to stay here and price is real good as well.More</t>
+  </si>
+  <si>
+    <t>Ali W</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r187891218-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
@@ -1700,6 +1907,9 @@
 As the...The Irvine Marriott is down the street and around the corner from John Wayne Airport. Great location for this trip. My room was large, comfortable, very good (if a bit boring) TV, a king size bed and a large bathroom. But, the room feels old. A complete reno should be coming up soon, I hope.As I was on the concierge floor, there is a buffet style breakfast....very good. Then they open the lounge again at four for three hours. The wine selection, liquor is great but so are the prices. The apps are enough to be a light meal for some people. The staff in this lounge are super. Now downstairs. The desk personnel get five stars from me. helpful, knowledgeable and go out of their way to accommodate. Ryan, one of the front door staff drove me to South Coast Mall and returned right on time to pick me up as I was the only one using the shuttle to go to the Mall.As I am not a novice nor an expert on tablets, anyone in the lobby area could work out my little bugs. Thanks to you all.There are two computers for guest use and a printer. The open concept includes a Starbucks with long lineups, a lounge and small dining area. They are very good, small portions if required and very attentive staff. I enjoyed having a light lunch there very much.As the hotel is situated in the middle of an office area, no shopping malls are close at hand. If your a man, well...nut for us ladies, ..I would have enjoyed a walk in the CA sun.The hotel passes but best if you are a business traveler.More</t>
   </si>
   <si>
+    <t>SCOTT W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r185592135-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -1724,6 +1934,9 @@
     <t>Typical Marriott Courtyard hotel with a great location. The people at the front desk were very pleasant and upgraded me to an executive ste. since I am a Gold member. Ask for a room with a courtyard pool view.More</t>
   </si>
   <si>
+    <t>USNAVYCGN9</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r175950866-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -1748,6 +1961,9 @@
     <t>If you're flying out of John Wayne Airport this is a great place to stay. Free shuttle service to airport, plenty of parking and quiet, very clean rooms and friendly helpful staff. Excellent quiet pool, free on site wifi. Rooms have been recently upgraded. Lots of good restaurants in the area.More</t>
   </si>
   <si>
+    <t>bellebrit</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r175631734-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -1766,6 +1982,9 @@
     <t>I stayed here with my teenager for a soccer tournament. The location was close to many family dining option as well 5 mins driving to UC Irvine. We had a quiet and relaxing experience between games. We especially enjoyed the pool and the convenience of a refrigerator in our room.More</t>
   </si>
   <si>
+    <t>Paul D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r174677656-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -1790,6 +2009,9 @@
     <t>I arrived at the Orange County Airport at 9pm on a Sunday and within 30 minutes their complimentary shuttle had me at the front desk and quickly checked-in. The room was very comfortable and surprisingly quiet.  The onsite outdoors pool was as good as any I have seen from a Courtyard....I'm a swimmer so trying to swim a mile will still make you dizzy!  Breakfast was reasonable and tasty each morning and the common area was attractive and spacious...consistent with other Courtyards' quality.  The location was particularly convenient ...walking distance to office towers where my business meetings were located.  Many restaurant options were located within a mile or two although there more than 1 excellent restaurant on the same block. For my Wednesday return to the airport I requested a ride in their shuttle at the front desk and was back at the airport in less than 15 minutes!I would definitely return to this facility.More</t>
   </si>
   <si>
+    <t>DFW_Virginia</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r172369061-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -1808,6 +2030,9 @@
     <t>Stayed in this Courtyard for 14 days. Is middle-of-the-road standard hotel in the Courtyard family, and does not stand out too much from others I have been staying in in the US. The hotel hallways do not appear to be the cleanest I have ever seen but that may have been a combination of lights and carpet. Biggest downside is that the internet connection is worthless and for business I could never stay in this place. Internet connection in the rooms on laptop and mac book is shady and luck of the draw to get connected (and stay connected!), but for iphones the reception of internet is absolute something to be ashamed off. Spend one hour on the phone with AT&amp;T support and in the end their only advice was "if you want to have iphone wifi just stand next to the door of the room", or, per the front desk, take your stuff that you want to connect and come down to the lobby, where a separate internet access point was set up that alledgedly was working. And to top it all off, the internet was completely down for a period of 24 hours. Shame on Courtyard for calling this a business hotel...More</t>
   </si>
   <si>
+    <t>zekeandmonica</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r172287423-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -1826,6 +2051,9 @@
     <t>I stayed here a previously for business trip to Irvine, overall, the experience this time around was somewhat of a letdown. The first time I stayed I booked the breakfast package for 2 ($20 upcharge) and had a pleasant stay and nice start to my day. This time around, I had booked my room with the breakfast for 2 (about $20 upcharge), needless to say, I was disappointed. Not sure if the gal at the lobby café was overwhelmed by the morning rush, but had to pay additional $20 for breakfast (to get what I wanted). It seems that this time around, the breakfast coupon only include a small coffee, and a crappy selection of a breakfast entrée. Too bad...my most important meal of the day cost my wife and I $40, for something comparable I could have bought for $15 at Mimi's Café. Ugh! Also, seems service was super SLOW in cleaning up tables, had to wait in line for 5-10 minutes to place breakfast order only to have to wait around another 5-10 for a clean table.Other than my disappointing breakfast experience, the rooms are clean, lobby is comfy along with clean pool area. If I stay here again, I won't go for the crappy breakfast upgrade.More</t>
   </si>
   <si>
+    <t>Rjljdjaj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r172212943-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -1838,6 +2066,9 @@
     <t xml:space="preserve">For a hotel that caters to business travelers the rooms in this hotel are tired and rundown. The new updated lobby is staffed with slow and bad service and wifi access at this hotel is atrocious.   The service is very bad and if not in a convienent location would not have stayed. </t>
   </si>
   <si>
+    <t>Supermagictasticguy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r167570453-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -1856,6 +2087,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>greekstar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r166863362-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -1871,6 +2105,9 @@
     <t>We stay here (husband and 4 year old son) the night of the 4 of July,we spend the day in Balboa Island and after fireworks we were happy to make it to the hotel, very convenient location, clean and comfortable.</t>
   </si>
   <si>
+    <t>CherHaines</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r166862110-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -1884,6 +2121,9 @@
   </si>
   <si>
     <t>Stayed for one night last week.  This is a nice, newer Courtyard close to Orange County airport.  We stayed here for its location, which was great.  Room was fine, with window that opened, quiet a/c and comfy bed.  A typical and nice courtyard.The real story of this hotel was the service.  After I had gone to sleep early, my husband went to the lobby a couple of times for the printer and other reasons.  When he got back to the room he couldn't find his wallet.  After looking around and retracing his steps, no wallet.  In the morning he broke the news to me and went online to look up credit card info and start making calls.Instead, checking email he found a message from the night auditor, Eric Bye, telling him his wallet had been found.  Mr Bye had to find a business card and then send email as my husbands name wasn't on the room reservation.  To me this was above and beyond.  The wallet was being kept safe by the front desk manager and its contents were intact!Highly recommend this hotel if you ever need to stay in this part of OC.More</t>
+  </si>
+  <si>
+    <t>BarryG</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r164061892-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
@@ -1914,6 +2154,9 @@
 The last thing...Spent 5 nights at this hotel this week. It's a typical Courtyard hotel - functional and convenient.After checking in and getting settled, I happened to glance up at the air duct in the bathroom. It looked like a science project (see photo). I'm not a clean freak and usually don't notice this type of thing, but this one was pretty scary.I posted the photo to Twitter and Courtyard's social media team responded immediately that they would follow up with management, but it took another 4 days before I actually heard from the hotel manager.In the interim, I had to use the ironing board, which was broken. Housekeeping quickly came up with another one, so I took that opportunity to show him the vent. He was great about it. He came back 20 minutes later, noting that several other vacant rooms he checked had the same issue, but that he found one that looked much better and offered to move me there. It turned out that one was a suite, so it was a nice upgrade.The one thing with the new room was that you couldn't slide open or closed the closet doors without them sliding off the track. So, every time I needed to use the closet, I had to carefully slide the door with two hands to keep it on the track. Again, nothing major, but clearly in need of some maintenance.The last thing I'd note is that the fitness center is pretty limited. My expectations are limited for a Courtyard fitness center, but this one had one elliptical, 2 treadmills, a bike and a single bench with dumbbells. Even at 5:45am, the one elliptical was often in use, so I would have to wait for it.  They could definitely use a few more pieces of equipment, though they don't have room in that center to add them.The staff were great and very helpful. When I finally heard from the hotel manager, Carlyn, she was apologetic and responsive. I think the delays were more in their corporate system, not at the property level.But this facility clearly needs a maintenance update.More</t>
   </si>
   <si>
+    <t>whend73</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r163407898-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -1935,6 +2178,9 @@
     <t>We (myself, my 4-year-old, and my mom) stayed here our first night in California to be near the Orange County Color Run location. The hotel was clean, comfy, and quiet. The staff was very helpful and accommodating with our request for a late check out so we could clean ourselves up from the Color Run. The room was great with two beds (in a separate room) and a pull out couch. The hotel lobby and cafe area was wonderful and they have an excellent selection of food and drinks. The pool was very nice and my son was able to enjoy a quick swim before we checked out. Quick and easy location just off the freeway. With several shopping and dinning options nearby.Would definitely stay here again if we were back in the area!More</t>
   </si>
   <si>
+    <t>Joes686</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r163229938-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -1950,6 +2196,9 @@
     <t>We were in Orange County for a family event and this hotel was central for many events. We had not one complaint. Great beds. Very comfortable. great lobby with lots of places to sit and chat and relax. Outside, ditto. Highly recommended.  We got a great rate through Priceline ($87 a night two queens), which I'm sure helped with my view of our stay.Other benefits: Free parking (and plenty of it), quiet...oh and walking distance to restaurants and shopping if needed.</t>
   </si>
   <si>
+    <t>Cynhoff</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r161218672-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -1965,6 +2214,9 @@
     <t>Everything about our stay was perfect. The staff was accomodating even when presented with "above &amp; beyond" requests. The bed was very, very comfortable. In the courtyard there are lovely conversation areas sitting areas one with a fire pit. We enjoyed our stay!</t>
   </si>
   <si>
+    <t>BillTLansing</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r161018543-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -1986,6 +2238,9 @@
     <t>This is the first and last time I ever make a reservation at this Couryard hotel.   The customer service was extremely poor.   I am a gold elite Marriott member and stay at Marriotts all over the country.  My reservation was at the government rate , however somehow I left my government ID at home.  HOWEVER I had all types of other ID as well as business cards , picture ID and assignment papers with government letter head and my name.  However the desk staff and later the manager indicated that they would NOT honor my rate without the actual ID.   They really made me feel devalued.I ended up at the local Newport Marriott and they did a wonderful job recognizing me as a gold elite member and setting me up in a fine room.This is the first and ONLY time I have had this hard of a time at a hotel!  They can KEEP IT!More</t>
   </si>
   <si>
+    <t>Cynthia A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r160453551-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -2004,6 +2259,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>Linda S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r157833111-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -2022,6 +2280,9 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>jm9k</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r157034375-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -2043,6 +2304,9 @@
     <t>We stayed here for three nights while visiting relatives in the area. It is conveniently close to the airport, and walking distance (1m) from a strip mall with a few restaurants. The free WiFi actually worked at this hotel, which is a nice change from what I'm used to. The "Bistro" restaurant downstairs is pretty decent, but nothing special. The hot tub and workout room were in good shape, and not busy at all. The showers have a nice shower head with high flow.We were surprised to come downstairs one late morning to find the restaurant closed. They must have some odd hours during the week days, which is less convenient than one would hope for.Overall, it was a good stay. There was nothing that really stood out and exceeded our expectations, but there was very little wrong. Everything went smoothly and as expected. We would definitely consider this hotel again the next time we visit the area.More</t>
   </si>
   <si>
+    <t>BC_CanadaWx_chick</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r155021390-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -2061,6 +2325,9 @@
     <t>We used this hotel as a transition night flying out of John Wayne airport.  The airport is quite close and it doesn't take long to get there using the shuttle.  Rooms were standard Marriott Courtyard rooms - clean with comfortable beds.  There was a pool and hot tub but we did not use them.  Issue was that the hotel is in a business district so there are no restaurants nearby (save a very expensive one next door).  There is kind of a little deli thing in the hotel where you can get "bistro" fare and coffee and there is a little "market" to buy a few things.  Staff was friendly and we enjoyed our short stay.More</t>
   </si>
   <si>
+    <t>ae6378137</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r152996810-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -2085,6 +2352,9 @@
     <t>The hotel is located a few km from the John Wayne Airport and has easy access to the 405 Freeway. It is not  a few km from the campus of UC Irvine. This hotel was not up to the same standards as the other hotels of the Courtyard Marriott group.  The response on check-in was a bit perfunctory.  The most negative aspect of the stay was that the room walls were paper thin - and the rooms did not appear to be acoustically isolated from one another - rather disconcerting and unpleasant to say the least.  The "so-called" Main Street is actually a six-lane speedway. There are only a few restaurants within walking distance. If you visit this hotel without a car, you will be stranded as there are few services/stores within easy walking distance.  In summary, this Courtyard/Marriott is an OK but it is an uninspiring place to stay.More</t>
   </si>
   <si>
+    <t>Kourtney L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r152661336-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -2103,6 +2373,9 @@
     <t>During my stay I was so disappointing with not only the service but lack of sleep I experienced. We were placed in a room that had constant noise from a facility door leading to the outside opening and closing. This was a very important trip for us and not getting any sleep left a sour taste in my mouth. Many amenities were lacking to top it off. Even simple things like enough towels in the room or the "free coffee" at 8:00am. Often times we pick Marriott not just for work events and functions but personal trips as well. However, my experience here was so dreadful I do not think that is going to be the case. Around 7am the slamming door stopped and then a cleaning person decided 8am was the perfect time to vacuum outside my door. We decided to leave early to have a little bit of serenity in our vehicle. I spoke to the front desk during check out and could not even receive an "I am sorry" wrote the GM and no response. Terrible customer service that is not the way to treat paying customers.More</t>
   </si>
   <si>
+    <t>poggy2002</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r152125588-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -2121,6 +2394,9 @@
     <t>Good basic hotel for business or family trips and reasonably priced.  The staff was very professional and friendly.  Location is convenient, close to the 405 freeway.  The late 2:00 p.m. check-out was a nice bonus.More</t>
   </si>
   <si>
+    <t>Corinne F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r149917950-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -2148,6 +2424,9 @@
     <t>Even though this and the other hotels in the area appeared to be sold out, I was able to get a reservation becuase of the Marriotts Rewards program.  The price was very good and the location was convenient to SNA airport, but not too close to be noisy.  The lobby has been updated with a modern design and has a good cafe for breakfast and light dinner.  Very comfortable to hang out in as is the fire pit area in the courtyard.  Rooms were comfortable, but the bathroom would be small for more than one person.More</t>
   </si>
   <si>
+    <t>marathon308</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r149706540-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -2166,6 +2445,9 @@
     <t>We stayed here over a weekend night and it was very good for the purpose of our visit. A nice lobby and a nice bar... Breakfast was obviously for a fee only, free coffee in the lobby was provided ONLY for FEW hours (most of the time there was no free coffee in the lobby). Front desk receptionist was kind. Room space was very good, bed, aircondition and free WiFi were very good. We reached the hotel by a car, did not fly in/out SNA. We picked this Courtyard hotel over the nearby SpringHill's  because of a lower weekend rate. On  previous visits to this neighborhood, I wrote two very good reviews about the nearbt SpringHill hotel, however since then... the hotel raised its weekend rate.More</t>
   </si>
   <si>
+    <t>KLintheSEH</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r149676547-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -2179,6 +2461,9 @@
   </si>
   <si>
     <t>I stayed here after a late arriving flight at John Wayne-the Marriott was super expensive so chose this option, whose price point was reasonable.I had to wait to check in as the desk clerk found an envelope for a guy (not a guest) picking up an envelope, going through seeing his ID and verifying info, etc. It was late and I found this not to be the greatest example of customer service.Room was clean, but not as spacious as another courtyard I had stayed at several days before. In am had to wait for server at bistro about 5 minutes or so to show up; I don't find lax service such as what has mentioned to be out of the ordinary for Orange County, but this seemed to be systemic with every experience I had in the hotel; no one in too big of a hurry to help.The price point is great, but it's not the closest to John Wayne, and also not the easiest to find or get to at night; located in what appears to be a combo business/condo development, you actually have to access through a point on Jamborree or down from the actual street address on Main. Probably won't be back.More</t>
+  </si>
+  <si>
+    <t>Staidthere</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r143650855-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
@@ -2229,6 +2514,9 @@
 The room was comfortable, but the smaller room and sluggish wi-fi were a big nuisance. We felt it was a good value on the weekends for those who don’t need good Internet, but we would not spend a hundred dollars more of our own money to stay there...We stayed at the Courtyard Irvine on a Sunday at a weekend special rate. We were in room 303 with a view of the office building next door. The room was smaller than in Courtyards where we had stayed on this trip (Kahului, Maui and San Diego's Liberty Station). It had a chair-width porch without chairs.  We didn't buy breakfast with the room.Pluses•	The bed and pillows were very comfortable•	Many wall plugs for charging our various devices•	Free coffee downstairs•	The TV screen was very large with good selection of channels•	Refrigerator, coffee maker•	Air conditioner blows over the desk and TV, not over the bedMinuses•	The free in-room wi-fi was very sluggish, and sometimes I was unable to attach files to e-mails. Probably the bandwidth doesn't fit the traffic. Maybe better in lobby.•	The toilet probably uses compressed air. The flushing noise is loud enough to wake up your wife if you use the bathroom in the middle of the night.•	The bathroom is divided by a door into a sink and mirror and a toilet-bath/shower. The door squeaksThe room was comfortable, but the smaller room and sluggish wi-fi were a big nuisance. We felt it was a good value on the weekends for those who don’t need good Internet, but we would not spend a hundred dollars more of our own money to stay there on week nights, given the alternatives.More</t>
   </si>
   <si>
+    <t>UOtterTravel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r139611236-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -2258,6 +2546,9 @@
 Check-in was easy, although I did have to ask if an upgrade was available (I'm a Platinum Premier Marriott Rewards member).  I was given the option of a couple of suites in different locations.  Suite was clean and everything was in working order, and there was a small fridge, microwave, and coffee...We stay at this property when we are flying out of SNA, since our flights are always early morning.  We  really like the location and the pool!  We usually arrive early afternoon and spend a few hours at the pool before getting dinner and returning our rental car - By staying here we pay for one less day of the rental car.  The hotel has a free shuttle to/from SNA.  It leaves the hotel every half hour, on the hour.  When I called for airport pick-up after returning our car I was informed that the shuttle driver had just gone on his half hour break.  Staff member told me to take a taxi and the hotel would pay for it.  (My husband decided we should walk.... I would NOT recommend this as you take your life in your hands trying to get out of the airport!  That said, it took us about 30 minutes to walk to the hotel.)  I made a reservation for our return to SNA in the morning.  We were the only passengers, so the driver took us shortly after we arrived in the lobby.Check-in was easy, although I did have to ask if an upgrade was available (I'm a Platinum Premier Marriott Rewards member).  I was given the option of a couple of suites in different locations.  Suite was clean and everything was in working order, and there was a small fridge, microwave, and coffee maker in the living room.  And of course, since this is a Courtyard, there was free WiFi.  Parking can be a little problematic when the property is busy, but we did not have a problem.  Parking is available in front of the hotel and there is a free garage behind the property.  The hotel has a roll-the-dice program for Marriott Rewards members -- You can earn extra points, something from the marketplace, etc.  I "won" 500 extra points and they were promptly credited to my account.  The property also has a cafe, but we did not utilize it.All staff members we encountered were friendly and professional.  We will be staying here again in October!More</t>
   </si>
   <si>
+    <t>thehernandez</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r138336825-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -2279,6 +2570,9 @@
     <t>The rooms are clean,  high speed internet, great location, clean bathroom, good breakfast, good pool,  excellent service, nice neighborhood it´s really close from every place. Everything is perfect there, we´ll definitely go back.More</t>
   </si>
   <si>
+    <t>Natalie B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r134589376-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -2306,6 +2600,9 @@
     <t>To begin hotel management emailed me a week before notifying that the hotel was under construction and offered apologies for the inconvience. I responded and requested newly renovated rooms which were provided upon check-in. Arrived at hotel around 9pm on 7/13/812 after driving in from LA, was immediately greeted by  very friendly, professional staff (can't remember her name middle aged blonde)!!! Speedy and simple check in she gave the description and directions to our rooms and provided us with local shopping and restaurant information. Rooms were newly renovated, clean and spacious!!! We booked the King Suites which were much bigger than my first apartment!!! The rooms had separate living areas with mini-fridge, coffee pot, tv, desk, sofa bed, and private balcony. Our room overlooked the pool area which was beautiful!!!! Although there is no free breakfast the hotel offers a starbucks bar and bistro that provides a variety of foods as well as an in hotel mini-market that sells snacks, beverages, and toiletries. The only inconvenience, which is normal for this area, was the parking (which is not bad just inconvenient for lazy people like myself). Hotel is located close to shopping, food, airport, and gas stations there is even an upscale restaurant in the parking lot! I will be staying at this hotel anytime I am in the area and I encourage all travelers to give them a try!More</t>
   </si>
   <si>
+    <t>SouthBay_Traveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r132931208-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -2333,6 +2630,9 @@
     <t>The location of this hotel would lead one to believe it is dedicated to the business traveler, but my wife and I enjoyed a weekend at this upscale Courtyard.  The room was like most Courtyards---ours having gone thru a recent renovation, with an OK bathroom and additional mirror outside of the bathroom.  King-size bed and pillows, very comfy and the air conditioner relatively quiet and responsive.  The room with a chair, sofa and writing/computing desk is large enough for the furniture without feeling cramped.Good news is a combo lobby bar and food service bar.  Food and beverage till 10pm each night.  The morning B'fast is not free, but the in-room WIFI is along with parking.  Location is such that getting to anywhere in Orange County from here is easy, via 3 freeways and large wide surface streets.Our ability to get to Newport and Corona Del Mar Beach's, Southcoast Plaza, Fashion Island and even Corona were made easy given the location of this Courtyard.  Getting to the airport was a snap.  The front desk staff were courteous and efficient and the bartender/food-tenders (Darryl &amp; Cali) very friendly, helpful and competent.  We will stay here again on our next visit tot Orange County.More</t>
   </si>
   <si>
+    <t>goolsbyjazz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r130992565-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -2351,6 +2651,9 @@
     <t>My family stayed here over the Memorial Day weekend and really enjoyed it. First, it is located conveniently near the highway making it easy to get to. It also was easy to hop on and travel to nearby attractions and cities. The hotel is about a year old and is in excellent condition. The rooms are spacious and the mini-fridge was a nice bonus. The lobby is inviting and warm with an interactive electronic information board for the guest to use. It's located across the street from a small plaza that houses a few restaurants and a Juice it Up where my daughter and I got some of the most delicious smoothies we ever had...seriously!Back to the hotel, though. The staff was kind, professional and helpful whenever we approached them...we felt right at home to be honest. My one issue wih the hotel is that the walls seem to be thin as we could hear conversations from the rooms around us. We kept in mind that it was a holiday weekend and there was a bit more activity at the hotel which is designed perfectly for the business traveller. We plan to definitely stay here again and will recommend it to friends and family!More</t>
   </si>
   <si>
+    <t>Getmarshall</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r130270007-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -2378,6 +2681,9 @@
     <t>stayed here just 2 weeks ago for a weekend.  I received a terrible room 103 near the lobby and elevator so this time I was requested a room in the back close to the parking garage.  Checked in Wed no problem.  On Friday construction on the entire 4th floor began.  The back elevator was closed during the day as the construction hours were 8 to 6.  There was no notice of the construction BEFORE arriving at the hotel otherwise we would of stayed somewhere else.  No one wants to hear drilling and banging on their weekend getaway!  So beware!  The room was fine the shower pressure was awful!  Enjoyed sitting at the pool, but the pool towels need to be actual pool towels.  Overall would not stay here again until the construction is completely done which as the hotel flyer said should be sometime in July.More</t>
   </si>
   <si>
+    <t>Andre-RT715</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r129614434-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -2396,6 +2702,9 @@
     <t>We stayed there just for the night. Clean, quiet, reasonably priced. Parking and WiFi are free. Very good bed. Parkade is 50' from the back door, not unlike in many other similar hotels. Just a perfect night stay.More</t>
   </si>
   <si>
+    <t>Les L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r128480947-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -2417,6 +2726,9 @@
     <t>The king size bed was short (I am tall), the room was very small (which sometimes is the case when you rent a room with a kingsize bed.  They jam  it into smaller room) and the the mold on the tile in the shower needed to be cleaned.  When I told the front desk of the need to clean it on Friday evening, it was still there on Sunday when I checked out.   We had two rooms, and the double queen room was a bit larger, but the hotel was a bit run down. Not worth the discounted $105 per room per night that we paid (plus tax).  Noisy, too. Work out room small and poorly equipped.More</t>
   </si>
   <si>
+    <t>RiotPelaaja</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r125234744-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -2438,6 +2750,9 @@
     <t>This is a good, your regular Marriot. I stayed here on business for two days. The location is excellent as the hotel is right next to the freeways (yet private and quiet), so it's easy to reach. Everything around Irvine is easily accessible. Everything from the malls to restaurants are just a few miles away from the hotel.The hotel has a fast-food type of restaurant, so the breakfast was adequate, but the coffee was ok. You can also get light dinner here and drinks. There's enough restaurants around that I didnt eat much at the hotel.The patio is nice and well-maintained with pool. There's a gym adjacent to the pool and it's got a basic set of weights and several cardio machines.All in all, the hotel is very much a business hotel and works well for that. The double room was your usual very spacious Marriot room and the internet was free and relatively fast. I was also glad that parking was available right in front of the hotel's main entrance.The staff were also friendly and attentative. Definitely recommened for business.More</t>
   </si>
   <si>
+    <t>go4itPaul</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r124865778-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -2453,6 +2768,9 @@
     <t>As a platinum member of Marriott, this hotel is where myself and family always stay for personal trips to LA.  Easy to get to Hollywood and to see friends in Burbanka nd Glendale.  Stay here 4-5 times a year.  Staff is friendly.</t>
   </si>
   <si>
+    <t>Joal M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r124736439-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -2471,6 +2789,9 @@
     <t>Stayed here 4 nights for a tradeshow.  Rooms were very nice, clean, roomy and comfortable.  If you're looking for a hot shower, you will be happy!  The shower was hot and a nice strong spray from the shower head, rarely found on the road.  The bistro was very nice, good food and quick service.  The free coffee is really good, but it's hidden behind a large tv area.  The fitness room was small, crowded and way too hot with no way to adjust a fan or the temperature.  We had to prop the door open, 4 people were in there and it was a smelly sauna.  It was very busy in there, I had to wait at 530am to use a treadmill.  Staff was very cordial and helpful.  Would definitely stay here again!!More</t>
   </si>
   <si>
+    <t>TravelFam39</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r123139371-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -2486,6 +2807,9 @@
     <t>I stayed here in early Jan 2012. The lobby is nice...but the rooms are dated and not in great shape. Residence Inn and Springhill Suites in Irvine provide nicer rooms at a similar price. I wouldn't stay here again.</t>
   </si>
   <si>
+    <t>Karen P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r123134451-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -2501,6 +2825,9 @@
     <t>December 2011</t>
   </si>
   <si>
+    <t>gbx3411</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r121830417-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -2522,6 +2849,9 @@
     <t>Stayed here for a convention. Good rate for room for a cpl. Had no fridge or micro. Have exp. eye medication requiring constant refridg. Req. mini frg from hotel. Nvr got1. Needless to say, tried to keep it iced but had to go to other flrs. to get ice. In 4 days, never ice on my flr or 2 above. My ovr $200 gloucoma drops got warm. Eye spec. appt day aft conv. put pressure in both eyes @ ovr 23, both eyes (bad). Dr gave new rx &amp; sample,told me to toss container exposed to heat. 2 wks ltr pressure @ 12, both eyes. Also req. veg. fare per conv. sheet. Pretty shoddy fare. Eggs runny, fruit in shrt supply, yougurt &amp; juice running out. No variety. Lunch had lunchmeat &amp; dried out bread. Banquet dinner a fiasco. People that ordered sea bass got sick , at least 40%. Veg fare laughable. Small amt. of uncooked veg covered in dough, called it veg wellington. Tiny amt of cold uncooked soggy veg put. Where is the pasta or rice that is always offered @ other hotels? The fresh fruit? 1 dessert, all choc mess. What about people that can't eat choc or don't like it? Chef managed to make me edible stuff for all except for the bnqt. We went out @ 11:30pm to find food. INN N OUT has grilled cheese, fries only french fries in their fryers &amp;...Stayed here for a convention. Good rate for room for a cpl. Had no fridge or micro. Have exp. eye medication requiring constant refridg. Req. mini frg from hotel. Nvr got1. Needless to say, tried to keep it iced but had to go to other flrs. to get ice. In 4 days, never ice on my flr or 2 above. My ovr $200 gloucoma drops got warm. Eye spec. appt day aft conv. put pressure in both eyes @ ovr 23, both eyes (bad). Dr gave new rx &amp; sample,told me to toss container exposed to heat. 2 wks ltr pressure @ 12, both eyes. Also req. veg. fare per conv. sheet. Pretty shoddy fare. Eggs runny, fruit in shrt supply, yougurt &amp; juice running out. No variety. Lunch had lunchmeat &amp; dried out bread. Banquet dinner a fiasco. People that ordered sea bass got sick , at least 40%. Veg fare laughable. Small amt. of uncooked veg covered in dough, called it veg wellington. Tiny amt of cold uncooked soggy veg put. Where is the pasta or rice that is always offered @ other hotels? The fresh fruit? 1 dessert, all choc mess. What about people that can't eat choc or don't like it? Chef managed to make me edible stuff for all except for the bnqt. We went out @ 11:30pm to find food. INN N OUT has grilled cheese, fries only french fries in their fryers &amp; has alwys had real ice cream in their shakes. Hooray for Southern Ca. Not on menu but their fare is fresh &amp; filling &amp; yummy. Open later on wknds. Hotel food very exp. Best meal bought @ hotel was bkfst cafeteria style. Only $90+ tip for 4 people.More</t>
   </si>
   <si>
+    <t>MenloMichael</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r120682328-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -2540,6 +2870,9 @@
     <t>November 2011</t>
   </si>
   <si>
+    <t>RC40</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r120155474-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -2555,6 +2888,9 @@
     <t>The usual, exactly what you'd expect from a Courtyard.  This ones pretty new and up to date.</t>
   </si>
   <si>
+    <t>David A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r118161701-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -2573,6 +2909,9 @@
     <t>June 2011</t>
   </si>
   <si>
+    <t>rv1015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r115250089-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -2588,6 +2927,9 @@
     <t>Don't really understand the negative reviews for this hotel.  I had quite an enjoyable stay here earlier this year.  I visit the area frequently for work, and love my Marriott Rewards points! The Marriott Irvine was booked up, so we went ahead and stayed at the Courtyard.  You're not going to get the complete Marriott experience as its a little bit more limited than the Marriott Irvine, but still a pretty good deal for what it is.  I'd definitely stay again.</t>
   </si>
   <si>
+    <t>Membermaine07</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r80886048-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -2609,6 +2951,9 @@
     <t>This is a standard Courtyard property. Everything is as you'd expect. What makes this place nice is they have a snack bar/restaurant in the lobby, that prepares your meals, and nice seating areas. The food is pretty good, if you want a sandwich or an easy breakfast. This place also has a nice seating area outside, with a fire pit. So you can take your food, or just your drink from the bar (full service) and relax outside. The value is average, but it's a great location to John Wayne airport and only 25 minutes to Long Beach airport. The drive to beaches is also not that far, so the location is pretty good.More</t>
   </si>
   <si>
+    <t>UtahMikester</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r46979226-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -2627,6 +2972,9 @@
     <t>October 2009</t>
   </si>
   <si>
+    <t>CopaSis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r31016695-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -2645,6 +2993,9 @@
     <t>May 2009</t>
   </si>
   <si>
+    <t>amnesiac</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r25840519-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -2661,6 +3012,9 @@
   </si>
   <si>
     <t>February 2009</t>
+  </si>
+  <si>
+    <t>alexsndiego</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r25480033-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
@@ -2692,6 +3046,9 @@
 I paid $230 with taxes for this place.  Way too expensive.  I stayed here only because it was close to my...First off, the lobby in this "traditional" Courtyard is recently renovated.  When I mean tradition, I mean the rooms are designed around a central courtyard with pool and spa.  The lobby has over 8 computers although download speeds were pretty slow in my opinion.  The lobby had a "bistro" still cafe.  I did not try the food.  I only stayed one night.  I drove in late for an early meeting with a client.The rooms were your typical courtyard.  Very dissappointed with the TV.  A 19-inch CRT Philipps TV.  Are you kidding me?   The room did have a refrigerator, both wired and wireless internet.  Room was clean and bed comfortable.There is construction going on right next to the hotel.  Taking up all the convenient parking in front of the hotel.  You have to park in the back and drag all your stuff through the hotel.  Only 1 elevator was working in this 4 story hotel at the time.  I wish the front desk clerk would've told me instead of me dragging my laptop briefcase, luggage, and my presentation materials for my client to an elevator that wasnt working.In the morning, construction was blocking the driveways and roadway with no detour signs to help you out.  Why no detours for travelers who are not familiar with the complex?I paid $230 with taxes for this place.  Way too expensive.  I stayed here only because it was close to my client and my meeting was at 815 am.More</t>
   </si>
   <si>
+    <t>yvieinca</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r5895234-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -2721,6 +3078,9 @@
 The...When we checked in the front desk staff was extremely pleasant and efficient. Our two requests were ignored (a low floor and a refridgerator in our room.  I'm glad we brought our travel fridge.)The parking situation is a disaster if you have more than one or two pieces of light luggage.  There are two parking areas, one at the very front of the hotel with very limited parking (maybe 20 spots) that fill up extremely quickly.  The other is a parking garage with no direct access to the hotel.  There's actually NO entrance facing the parking garage.  There are two luggage carts at the front desk for use, but no help is available.  I suggest packing light.  There are only two elevators in the hotel, essentially at opposite ends of the hotel.  The hotel room itself is rather small compared to other courtyards we've stayed in.  Nonetheless, the room was immaculately clean, smelled nicely and had plenty of pillows on the bed.  There was a balcony over looking the pool and a busy city street which I loved.  Sorrily that's about where my happiness with this hotel ends.The counter space for the bathroom is beyond tiny.  My husband and I each had an overnight kit (toothbrush, toothpaste etc) and we had to remove them from the counter in order for the other person to put theirs on.  Meanwhile the toilet/shower area is very expansive (ie. wasted space).  The air conditioner was by far the loudest I've ever heard.  You'd think with the airport being only a few blocks away the plane noise is what would keep you up.  Not so.  The air conditioner drowned even the loudest setting on the television with relative ease.   For a light sleeper this would mean a disasterous night, luckily neither of us are terribly light sleepers.Speaking of televisions, the television was a story in itself.  The volume was uncontrolable.  So loud at commercials it hurt our ears, so quite during the show you could barely hear it.  The remote never left our hand while we had the tv on, we were constantly adjusting the volume.  The picture was grainy, fuzzy and sometimes nearly unusable. The free "high speed" internet was anything but "high speed".  It was usually MUCH slower than your average dial up connection.  Connecting to most major websites (ie news sites) was nearly impossible if there were any graphics at all.  Even text based pages were slow to load to the point where I actually gave up trying to use the internet all together.  This was quite frustrating to do any work with the web.  Now on to breakfast.  The first day we were there happened to be a sunday.  We were quite pleased with the selection of foods on the $10 per person buffet.  (No it's not free).  However, that was the ONLY day with a good selection.  The selection went from scrambled eggs, sausage, potatoes, bacon, biscuits and gravy, fruit, oatmeal, breads/muffins, yogurt, cold cereal and waffles...  To waffles, bacon sausage, potatoes and scrambled eggs.  Now if your not following here, the selection dropped to less than half of the Sunday menu.  The selections did not change at all for the remaining 7 days we were there.  The service at the buffet (for juice, coffee etc) was extremely hit and miss.  Tipping the staff didn't seem to help at all so the tips steadily decreased as the service decreased.  (Yes, a tip is expected.)    This was by far the worst, most unimaginative buffet breakfast at a courtyard we've had yet.  Definately not worth the $10 per person if you have the ability to go out.    Even the free 24 hour coffee is not very complete.  No lids for the cups, nothing to stir your coffee with.Which brings me to the little store they say they have.  My husband and I were a bit hungry so he went down to find out what's in the store.  A candy bar or some ice cream would have sufficed but the selection was more than dim.  3 types of cookies, 3 types of frozen dinners (which there are no microwaves in the rooms to heat them with), two varieties of soda, and bottled water rounded out the choices for this "store".  I never even got to look at the prices because I was rather dissatisfied with the selections.  While we were there none of the soda vending machines worked.  This was very disappointing for a caffiene addict who hates coffee and tea!The housekeeping staff was extraordinarily pleasant.  We ended up leaving one staff member a $20 tip for helping us so much with getting us towels when we needed them, on our hectic schedule.  I was very pleased with the attentiveness of the housekeeping staff.Overall, I would not stay at this hotel again.  Not because of the service but rather the amenities.  It seems that for the near $220 a night we paid to stay here that at least our internet could have worked, and breakfast could have been a smidge more imaginative.  I will say this hotel would likely be a fine choice for one or two nights on a business trip, but for any length of time I would find somewhere a little more travel friendly.More</t>
   </si>
   <si>
+    <t>AmyinLasVegas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r4970272-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
   </si>
   <si>
@@ -2737,6 +3097,9 @@
   </si>
   <si>
     <t>We stayed at this hotel when we went to Disneyland earlier this month. The distance to Disneyland was not bad at all. We were impressed with the room because it had a couch rather than just a chair and there seemed to be plenty of room. The room was modernly decorated. We didn't see any bugs and the hotel seemed to be in good condition. Some things that did not impress us were: the buffet looked like something I have seen at hotels with complimentary breakfasts. It is not worth the $9.95 pp they charge. Because of this, we went to McDonalds every day, which is just down the street. Also-something that really grossed me out was that the maid actually re-folded our wet towels both days she cleaned and hung them back up. I have previously stayed at hotels where there was a small sign stating that they are trying to conserve energy and would like you to re-use towels if possible. You are given instructions on where to place your towels if they are dirty and where to place them when they can be re-used. I have no problem with that. However, in this case, our towels had been on the floors either in the bathroom or in the hotel room (both which have millions of germs) and the lady hung them back up. They were still wet in many places. It made me sick to my stomach...We stayed at this hotel when we went to Disneyland earlier this month. The distance to Disneyland was not bad at all. We were impressed with the room because it had a couch rather than just a chair and there seemed to be plenty of room. The room was modernly decorated. We didn't see any bugs and the hotel seemed to be in good condition. Some things that did not impress us were: the buffet looked like something I have seen at hotels with complimentary breakfasts. It is not worth the $9.95 pp they charge. Because of this, we went to McDonalds every day, which is just down the street. Also-something that really grossed me out was that the maid actually re-folded our wet towels both days she cleaned and hung them back up. I have previously stayed at hotels where there was a small sign stating that they are trying to conserve energy and would like you to re-use towels if possible. You are given instructions on where to place your towels if they are dirty and where to place them when they can be re-used. I have no problem with that. However, in this case, our towels had been on the floors either in the bathroom or in the hotel room (both which have millions of germs) and the lady hung them back up. They were still wet in many places. It made me sick to my stomach and I found it very unsanitary. I would advise this hotel to put a sign up-otherwise...ask for fresh towels daily because who knows what your towels have on them!! Probably won't stay here again-pretty average.More</t>
+  </si>
+  <si>
+    <t>Alicia W</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d77344-r4518205-Courtyard_Irvine_John_Wayne_Airport_Orange_County-Irvine_California.html</t>
@@ -3256,34 +3619,38 @@
       <c r="A2" t="n">
         <v>12823</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>132225</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
@@ -3300,56 +3667,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="X2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>12823</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>11115</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -3361,56 +3732,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>12823</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>132226</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -3422,56 +3797,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>12823</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>132227</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -3487,56 +3866,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>12823</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>16657</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="O6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -3550,50 +3933,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>12823</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>132228</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="L7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="O7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3609,56 +3996,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="X7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="Y7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>12823</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>4263</v>
+      </c>
+      <c r="C8" t="s">
+        <v>105</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="J8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="O8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3670,56 +4061,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="X8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="Y8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>12823</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>58152</v>
+      </c>
+      <c r="C9" t="s">
+        <v>116</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="J9" t="s">
+        <v>119</v>
+      </c>
+      <c r="K9" t="s">
+        <v>120</v>
+      </c>
+      <c r="L9" t="s">
+        <v>121</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>111</v>
       </c>
-      <c r="K9" t="s">
-        <v>112</v>
-      </c>
-      <c r="L9" t="s">
-        <v>113</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>104</v>
-      </c>
       <c r="O9" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P9" t="n">
         <v>4</v>
@@ -3737,50 +4132,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>12823</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>132229</v>
+      </c>
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="L10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="O10" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3794,50 +4193,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>12823</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>2520</v>
+      </c>
+      <c r="C11" t="s">
+        <v>129</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="J11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="K11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="O11" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3857,50 +4260,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>12823</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>132230</v>
+      </c>
+      <c r="C12" t="s">
+        <v>137</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="J12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="K12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="L12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="O12" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3914,50 +4321,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>12823</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>132231</v>
+      </c>
+      <c r="C13" t="s">
+        <v>144</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="J13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="K13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="L13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="O13" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3973,56 +4384,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="X13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="Y13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>12823</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>58152</v>
+      </c>
+      <c r="C14" t="s">
+        <v>116</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="J14" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="K14" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="L14" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="O14" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -4042,50 +4457,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>12823</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>132232</v>
+      </c>
+      <c r="C15" t="s">
+        <v>159</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="J15" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="K15" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="L15" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="O15" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -4103,56 +4522,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="X15" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="Y15" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>12823</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>21729</v>
+      </c>
+      <c r="C16" t="s">
+        <v>168</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="J16" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="K16" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="L16" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="O16" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -4170,50 +4593,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>12823</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>48337</v>
+      </c>
+      <c r="C17" t="s">
+        <v>175</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="J17" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="K17" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="O17" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -4233,50 +4660,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>12823</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>182</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="J18" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="K18" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="L18" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="O18" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -4290,50 +4721,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>12823</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>132233</v>
+      </c>
+      <c r="C19" t="s">
+        <v>189</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
+        <v>191</v>
+      </c>
+      <c r="J19" t="s">
+        <v>192</v>
+      </c>
+      <c r="K19" t="s">
+        <v>193</v>
+      </c>
+      <c r="L19" t="s">
+        <v>194</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
         <v>174</v>
       </c>
-      <c r="J19" t="s">
-        <v>175</v>
-      </c>
-      <c r="K19" t="s">
-        <v>176</v>
-      </c>
-      <c r="L19" t="s">
-        <v>177</v>
-      </c>
-      <c r="M19" t="n">
-        <v>4</v>
-      </c>
-      <c r="N19" t="s">
-        <v>160</v>
-      </c>
       <c r="O19" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -4353,50 +4788,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>12823</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>87535</v>
+      </c>
+      <c r="C20" t="s">
+        <v>196</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="J20" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="K20" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="L20" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="O20" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="P20" t="n">
         <v>4</v>
@@ -4416,41 +4855,45 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>12823</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>4806</v>
+      </c>
+      <c r="C21" t="s">
+        <v>204</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="J21" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="K21" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="L21" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
@@ -4469,50 +4912,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>12823</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>132234</v>
+      </c>
+      <c r="C22" t="s">
+        <v>210</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="J22" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="K22" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="L22" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="O22" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -4530,50 +4977,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>12823</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>132235</v>
+      </c>
+      <c r="C23" t="s">
+        <v>217</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="J23" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="K23" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="L23" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="O23" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4585,56 +5036,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="X23" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="Y23" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>12823</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>117899</v>
+      </c>
+      <c r="C24" t="s">
+        <v>227</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="J24" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="K24" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="L24" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="O24" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -4654,50 +5109,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>12823</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>132236</v>
+      </c>
+      <c r="C25" t="s">
+        <v>233</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="J25" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="K25" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="L25" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="O25" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4717,50 +5176,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>12823</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>132237</v>
+      </c>
+      <c r="C26" t="s">
+        <v>239</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="J26" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="K26" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="L26" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="O26" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4774,50 +5237,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>12823</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>132234</v>
+      </c>
+      <c r="C27" t="s">
+        <v>217</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="J27" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="K27" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="L27" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="O27" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4831,50 +5298,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>12823</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>132238</v>
+      </c>
+      <c r="C28" t="s">
+        <v>253</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="J28" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="K28" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="L28" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="M28" t="n">
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="O28" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4886,56 +5357,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="X28" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="Y28" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>12823</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>132239</v>
+      </c>
+      <c r="C29" t="s">
+        <v>263</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="J29" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="K29" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="L29" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="O29" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4953,56 +5428,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="X29" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="Y29" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>12823</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>132240</v>
+      </c>
+      <c r="C30" t="s">
+        <v>273</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="J30" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="K30" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="L30" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="O30" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
@@ -5018,56 +5497,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="X30" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="Y30" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>12823</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>132241</v>
+      </c>
+      <c r="C31" t="s">
+        <v>281</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="J31" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="K31" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="L31" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="O31" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="n">
@@ -5087,50 +5570,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>12823</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>47576</v>
+      </c>
+      <c r="C32" t="s">
+        <v>287</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="J32" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="K32" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="L32" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="O32" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="n">
@@ -5148,50 +5635,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>12823</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>132242</v>
+      </c>
+      <c r="C33" t="s">
+        <v>295</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="J33" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="K33" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="L33" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="O33" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="P33" t="n">
         <v>2</v>
@@ -5207,47 +5698,51 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="X33" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="Y33" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>12823</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>132243</v>
+      </c>
+      <c r="C34" t="s">
+        <v>304</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="J34" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="K34" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="L34" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
@@ -5264,56 +5759,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="X34" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="Y34" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>12823</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>132244</v>
+      </c>
+      <c r="C35" t="s">
+        <v>313</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="J35" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="K35" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="L35" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="O35" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -5325,56 +5824,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="X35" t="s">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="Y35" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>12823</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>132245</v>
+      </c>
+      <c r="C36" t="s">
+        <v>322</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="J36" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="K36" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="L36" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="O36" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="P36" t="n">
         <v>4</v>
@@ -5392,56 +5895,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="X36" t="s">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="Y36" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>12823</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>132246</v>
+      </c>
+      <c r="C37" t="s">
+        <v>330</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>297</v>
+        <v>331</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>298</v>
+        <v>332</v>
       </c>
       <c r="J37" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="K37" t="s">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="L37" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="O37" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P37" t="n">
         <v>3</v>
@@ -5461,50 +5968,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>303</v>
+        <v>337</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>12823</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>132247</v>
+      </c>
+      <c r="C38" t="s">
+        <v>338</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="J38" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="K38" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="L38" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="O38" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -5518,50 +6029,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>12823</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>132248</v>
+      </c>
+      <c r="C39" t="s">
+        <v>345</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>310</v>
+        <v>346</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="J39" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="K39" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="L39" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>315</v>
+        <v>351</v>
       </c>
       <c r="O39" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="n">
@@ -5579,56 +6094,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="X39" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="Y39" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>12823</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>132249</v>
+      </c>
+      <c r="C40" t="s">
+        <v>355</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="J40" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="K40" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="L40" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>315</v>
+        <v>351</v>
       </c>
       <c r="O40" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5640,56 +6159,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="X40" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="Y40" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>12823</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C41" t="s">
+        <v>362</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="J41" t="s">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="K41" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="L41" t="s">
-        <v>329</v>
+        <v>367</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>315</v>
+        <v>351</v>
       </c>
       <c r="O41" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5701,56 +6224,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="X41" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="Y41" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>12823</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>3136</v>
+      </c>
+      <c r="C42" t="s">
+        <v>371</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>333</v>
+        <v>372</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="J42" t="s">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="K42" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
       <c r="L42" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="O42" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5766,56 +6293,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="X42" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="Y42" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>12823</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>132250</v>
+      </c>
+      <c r="C43" t="s">
+        <v>381</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>343</v>
+        <v>383</v>
       </c>
       <c r="J43" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="K43" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="L43" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="O43" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -5827,56 +6358,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="X43" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="Y43" t="s">
-        <v>347</v>
+        <v>387</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>12823</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>132251</v>
+      </c>
+      <c r="C44" t="s">
+        <v>388</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>348</v>
+        <v>389</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>349</v>
+        <v>390</v>
       </c>
       <c r="J44" t="s">
-        <v>350</v>
+        <v>391</v>
       </c>
       <c r="K44" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="L44" t="s">
-        <v>352</v>
+        <v>393</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="O44" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P44" t="n">
         <v>4</v>
@@ -5894,50 +6429,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>352</v>
+        <v>393</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>12823</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>132252</v>
+      </c>
+      <c r="C45" t="s">
+        <v>394</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>353</v>
+        <v>395</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>354</v>
+        <v>396</v>
       </c>
       <c r="J45" t="s">
-        <v>355</v>
+        <v>397</v>
       </c>
       <c r="K45" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="L45" t="s">
-        <v>357</v>
+        <v>399</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>358</v>
+        <v>400</v>
       </c>
       <c r="O45" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P45" t="n">
         <v>3</v>
@@ -5955,56 +6494,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>359</v>
+        <v>401</v>
       </c>
       <c r="X45" t="s">
-        <v>360</v>
+        <v>402</v>
       </c>
       <c r="Y45" t="s">
-        <v>361</v>
+        <v>403</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>12823</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>132253</v>
+      </c>
+      <c r="C46" t="s">
+        <v>404</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>362</v>
+        <v>405</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>363</v>
+        <v>406</v>
       </c>
       <c r="J46" t="s">
-        <v>364</v>
+        <v>407</v>
       </c>
       <c r="K46" t="s">
-        <v>365</v>
+        <v>408</v>
       </c>
       <c r="L46" t="s">
-        <v>366</v>
+        <v>409</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>358</v>
+        <v>400</v>
       </c>
       <c r="O46" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="n">
@@ -6024,50 +6567,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>367</v>
+        <v>410</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>12823</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>132254</v>
+      </c>
+      <c r="C47" t="s">
+        <v>411</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>368</v>
+        <v>412</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>369</v>
+        <v>413</v>
       </c>
       <c r="J47" t="s">
-        <v>370</v>
+        <v>414</v>
       </c>
       <c r="K47" t="s">
-        <v>371</v>
+        <v>415</v>
       </c>
       <c r="L47" t="s">
-        <v>372</v>
+        <v>416</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>373</v>
+        <v>417</v>
       </c>
       <c r="O47" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -6085,56 +6632,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>374</v>
+        <v>418</v>
       </c>
       <c r="X47" t="s">
-        <v>375</v>
+        <v>419</v>
       </c>
       <c r="Y47" t="s">
-        <v>376</v>
+        <v>420</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>12823</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>132255</v>
+      </c>
+      <c r="C48" t="s">
+        <v>421</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>377</v>
+        <v>422</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>378</v>
+        <v>423</v>
       </c>
       <c r="J48" t="s">
-        <v>379</v>
+        <v>424</v>
       </c>
       <c r="K48" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="L48" t="s">
-        <v>381</v>
+        <v>426</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>382</v>
+        <v>427</v>
       </c>
       <c r="O48" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="n">
@@ -6152,50 +6703,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>381</v>
+        <v>426</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>12823</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>132256</v>
+      </c>
+      <c r="C49" t="s">
+        <v>428</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>383</v>
+        <v>429</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>384</v>
+        <v>430</v>
       </c>
       <c r="J49" t="s">
-        <v>385</v>
+        <v>431</v>
       </c>
       <c r="K49" t="s">
-        <v>386</v>
+        <v>432</v>
       </c>
       <c r="L49" t="s">
-        <v>387</v>
+        <v>433</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>382</v>
+        <v>427</v>
       </c>
       <c r="O49" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -6215,50 +6770,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>387</v>
+        <v>433</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>12823</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>132257</v>
+      </c>
+      <c r="C50" t="s">
+        <v>434</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>388</v>
+        <v>435</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>389</v>
+        <v>436</v>
       </c>
       <c r="J50" t="s">
-        <v>390</v>
+        <v>437</v>
       </c>
       <c r="K50" t="s">
-        <v>391</v>
+        <v>438</v>
       </c>
       <c r="L50" t="s">
-        <v>392</v>
+        <v>439</v>
       </c>
       <c r="M50" t="n">
         <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>382</v>
+        <v>427</v>
       </c>
       <c r="O50" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="n">
@@ -6276,56 +6835,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>393</v>
+        <v>440</v>
       </c>
       <c r="X50" t="s">
-        <v>394</v>
+        <v>441</v>
       </c>
       <c r="Y50" t="s">
-        <v>395</v>
+        <v>442</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>12823</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>6480</v>
+      </c>
+      <c r="C51" t="s">
+        <v>443</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>396</v>
+        <v>444</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>397</v>
+        <v>445</v>
       </c>
       <c r="J51" t="s">
-        <v>398</v>
+        <v>446</v>
       </c>
       <c r="K51" t="s">
-        <v>399</v>
+        <v>447</v>
       </c>
       <c r="L51" t="s">
-        <v>400</v>
+        <v>448</v>
       </c>
       <c r="M51" t="n">
         <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>382</v>
+        <v>427</v>
       </c>
       <c r="O51" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="n">
@@ -6343,56 +6906,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>401</v>
+        <v>449</v>
       </c>
       <c r="X51" t="s">
-        <v>402</v>
+        <v>450</v>
       </c>
       <c r="Y51" t="s">
-        <v>403</v>
+        <v>451</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>12823</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>19453</v>
+      </c>
+      <c r="C52" t="s">
+        <v>452</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>404</v>
+        <v>453</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>405</v>
+        <v>454</v>
       </c>
       <c r="J52" t="s">
-        <v>406</v>
+        <v>455</v>
       </c>
       <c r="K52" t="s">
-        <v>407</v>
+        <v>456</v>
       </c>
       <c r="L52" t="s">
-        <v>408</v>
+        <v>457</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>409</v>
+        <v>458</v>
       </c>
       <c r="O52" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -6412,50 +6979,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>408</v>
+        <v>457</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>12823</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>132258</v>
+      </c>
+      <c r="C53" t="s">
+        <v>459</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>410</v>
+        <v>460</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>411</v>
+        <v>461</v>
       </c>
       <c r="J53" t="s">
-        <v>412</v>
+        <v>462</v>
       </c>
       <c r="K53" t="s">
-        <v>413</v>
+        <v>463</v>
       </c>
       <c r="L53" t="s">
-        <v>414</v>
+        <v>464</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>415</v>
+        <v>465</v>
       </c>
       <c r="O53" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="n">
@@ -6473,56 +7044,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>416</v>
+        <v>466</v>
       </c>
       <c r="X53" t="s">
-        <v>417</v>
+        <v>467</v>
       </c>
       <c r="Y53" t="s">
-        <v>418</v>
+        <v>468</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>12823</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>132259</v>
+      </c>
+      <c r="C54" t="s">
+        <v>469</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>419</v>
+        <v>470</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>420</v>
+        <v>471</v>
       </c>
       <c r="J54" t="s">
-        <v>421</v>
+        <v>472</v>
       </c>
       <c r="K54" t="s">
-        <v>422</v>
+        <v>473</v>
       </c>
       <c r="L54" t="s">
-        <v>423</v>
+        <v>474</v>
       </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>424</v>
+        <v>475</v>
       </c>
       <c r="O54" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P54" t="n">
         <v>1</v>
@@ -6540,56 +7115,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>425</v>
+        <v>476</v>
       </c>
       <c r="X54" t="s">
-        <v>426</v>
+        <v>477</v>
       </c>
       <c r="Y54" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>12823</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>132260</v>
+      </c>
+      <c r="C55" t="s">
+        <v>479</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>428</v>
+        <v>480</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>429</v>
+        <v>481</v>
       </c>
       <c r="J55" t="s">
-        <v>430</v>
+        <v>482</v>
       </c>
       <c r="K55" t="s">
-        <v>431</v>
+        <v>483</v>
       </c>
       <c r="L55" t="s">
-        <v>432</v>
+        <v>484</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>409</v>
+        <v>458</v>
       </c>
       <c r="O55" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -6611,56 +7190,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>433</v>
+        <v>485</v>
       </c>
       <c r="X55" t="s">
-        <v>434</v>
+        <v>486</v>
       </c>
       <c r="Y55" t="s">
-        <v>435</v>
+        <v>487</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>12823</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>8320</v>
+      </c>
+      <c r="C56" t="s">
+        <v>488</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>436</v>
+        <v>489</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>437</v>
+        <v>490</v>
       </c>
       <c r="J56" t="s">
-        <v>438</v>
+        <v>491</v>
       </c>
       <c r="K56" t="s">
-        <v>439</v>
+        <v>492</v>
       </c>
       <c r="L56" t="s">
-        <v>440</v>
+        <v>493</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>441</v>
+        <v>494</v>
       </c>
       <c r="O56" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="n">
@@ -6678,47 +7261,51 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>442</v>
+        <v>495</v>
       </c>
       <c r="X56" t="s">
-        <v>443</v>
+        <v>496</v>
       </c>
       <c r="Y56" t="s">
-        <v>444</v>
+        <v>497</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>12823</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>132261</v>
+      </c>
+      <c r="C57" t="s">
+        <v>498</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>445</v>
+        <v>499</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>446</v>
+        <v>500</v>
       </c>
       <c r="J57" t="s">
-        <v>447</v>
+        <v>501</v>
       </c>
       <c r="K57" t="s">
-        <v>448</v>
+        <v>502</v>
       </c>
       <c r="L57" t="s">
-        <v>449</v>
+        <v>503</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
@@ -6735,56 +7322,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>442</v>
+        <v>495</v>
       </c>
       <c r="X57" t="s">
-        <v>443</v>
+        <v>496</v>
       </c>
       <c r="Y57" t="s">
-        <v>450</v>
+        <v>504</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>12823</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>132262</v>
+      </c>
+      <c r="C58" t="s">
+        <v>505</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>451</v>
+        <v>506</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>452</v>
+        <v>507</v>
       </c>
       <c r="J58" t="s">
-        <v>453</v>
+        <v>508</v>
       </c>
       <c r="K58" t="s">
-        <v>454</v>
+        <v>509</v>
       </c>
       <c r="L58" t="s">
-        <v>455</v>
+        <v>510</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>456</v>
+        <v>511</v>
       </c>
       <c r="O58" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="P58" t="n">
         <v>4</v>
@@ -6802,56 +7393,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>457</v>
+        <v>512</v>
       </c>
       <c r="X58" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="Y58" t="s">
-        <v>459</v>
+        <v>514</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>12823</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>132263</v>
+      </c>
+      <c r="C59" t="s">
+        <v>515</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>460</v>
+        <v>516</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>461</v>
+        <v>517</v>
       </c>
       <c r="J59" t="s">
-        <v>462</v>
+        <v>518</v>
       </c>
       <c r="K59" t="s">
-        <v>463</v>
+        <v>519</v>
       </c>
       <c r="L59" t="s">
-        <v>464</v>
+        <v>520</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>456</v>
+        <v>511</v>
       </c>
       <c r="O59" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="n">
@@ -6867,56 +7462,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>465</v>
+        <v>521</v>
       </c>
       <c r="X59" t="s">
-        <v>466</v>
+        <v>522</v>
       </c>
       <c r="Y59" t="s">
-        <v>467</v>
+        <v>523</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>12823</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>132264</v>
+      </c>
+      <c r="C60" t="s">
+        <v>524</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>468</v>
+        <v>525</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>469</v>
+        <v>526</v>
       </c>
       <c r="J60" t="s">
-        <v>470</v>
+        <v>527</v>
       </c>
       <c r="K60" t="s">
-        <v>471</v>
+        <v>528</v>
       </c>
       <c r="L60" t="s">
-        <v>472</v>
+        <v>529</v>
       </c>
       <c r="M60" t="n">
         <v>3</v>
       </c>
       <c r="N60" t="s">
-        <v>473</v>
+        <v>530</v>
       </c>
       <c r="O60" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P60" t="n">
         <v>3</v>
@@ -6932,47 +7531,51 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="X60" t="s">
-        <v>475</v>
+        <v>532</v>
       </c>
       <c r="Y60" t="s">
-        <v>476</v>
+        <v>533</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>12823</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>132265</v>
+      </c>
+      <c r="C61" t="s">
+        <v>534</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>477</v>
+        <v>535</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>478</v>
+        <v>536</v>
       </c>
       <c r="J61" t="s">
-        <v>479</v>
+        <v>537</v>
       </c>
       <c r="K61" t="s">
-        <v>480</v>
+        <v>538</v>
       </c>
       <c r="L61" t="s">
-        <v>481</v>
+        <v>539</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
@@ -6999,47 +7602,51 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="X61" t="s">
-        <v>475</v>
+        <v>532</v>
       </c>
       <c r="Y61" t="s">
-        <v>482</v>
+        <v>540</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>12823</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>132266</v>
+      </c>
+      <c r="C62" t="s">
+        <v>541</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>483</v>
+        <v>542</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>484</v>
+        <v>543</v>
       </c>
       <c r="J62" t="s">
-        <v>485</v>
+        <v>544</v>
       </c>
       <c r="K62" t="s">
-        <v>486</v>
+        <v>545</v>
       </c>
       <c r="L62" t="s">
-        <v>487</v>
+        <v>546</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
@@ -7068,50 +7675,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>487</v>
+        <v>546</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>12823</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>1652</v>
+      </c>
+      <c r="C63" t="s">
+        <v>547</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>488</v>
+        <v>548</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>489</v>
+        <v>549</v>
       </c>
       <c r="J63" t="s">
-        <v>490</v>
+        <v>550</v>
       </c>
       <c r="K63" t="s">
-        <v>491</v>
+        <v>551</v>
       </c>
       <c r="L63" t="s">
-        <v>492</v>
+        <v>552</v>
       </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
       <c r="N63" t="s">
-        <v>473</v>
+        <v>530</v>
       </c>
       <c r="O63" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P63" t="n">
         <v>1</v>
@@ -7135,50 +7746,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>493</v>
+        <v>553</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>12823</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>53367</v>
+      </c>
+      <c r="C64" t="s">
+        <v>554</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>494</v>
+        <v>555</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>495</v>
+        <v>556</v>
       </c>
       <c r="J64" t="s">
-        <v>496</v>
+        <v>557</v>
       </c>
       <c r="K64" t="s">
-        <v>497</v>
+        <v>558</v>
       </c>
       <c r="L64" t="s">
-        <v>498</v>
+        <v>559</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>473</v>
+        <v>530</v>
       </c>
       <c r="O64" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P64" t="n">
         <v>4</v>
@@ -7202,50 +7817,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>498</v>
+        <v>559</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>12823</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>132267</v>
+      </c>
+      <c r="C65" t="s">
+        <v>560</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>499</v>
+        <v>561</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="J65" t="s">
-        <v>501</v>
+        <v>563</v>
       </c>
       <c r="K65" t="s">
-        <v>502</v>
+        <v>564</v>
       </c>
       <c r="L65" t="s">
-        <v>503</v>
+        <v>565</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>504</v>
+        <v>566</v>
       </c>
       <c r="O65" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
@@ -7259,50 +7878,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>503</v>
+        <v>565</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>12823</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>6239</v>
+      </c>
+      <c r="C66" t="s">
+        <v>567</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>505</v>
+        <v>568</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>506</v>
+        <v>569</v>
       </c>
       <c r="J66" t="s">
-        <v>507</v>
+        <v>570</v>
       </c>
       <c r="K66" t="s">
-        <v>508</v>
+        <v>571</v>
       </c>
       <c r="L66" t="s">
-        <v>509</v>
+        <v>572</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>504</v>
+        <v>566</v>
       </c>
       <c r="O66" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -7326,50 +7949,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>509</v>
+        <v>572</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>12823</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>132268</v>
+      </c>
+      <c r="C67" t="s">
+        <v>573</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>510</v>
+        <v>574</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>511</v>
+        <v>575</v>
       </c>
       <c r="J67" t="s">
-        <v>512</v>
+        <v>576</v>
       </c>
       <c r="K67" t="s">
-        <v>513</v>
+        <v>577</v>
       </c>
       <c r="L67" t="s">
-        <v>514</v>
+        <v>578</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>515</v>
+        <v>579</v>
       </c>
       <c r="O67" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P67" t="n">
         <v>3</v>
@@ -7393,50 +8020,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>514</v>
+        <v>578</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>12823</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>2907</v>
+      </c>
+      <c r="C68" t="s">
+        <v>580</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>516</v>
+        <v>581</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>517</v>
+        <v>582</v>
       </c>
       <c r="J68" t="s">
-        <v>518</v>
+        <v>583</v>
       </c>
       <c r="K68" t="s">
-        <v>519</v>
+        <v>584</v>
       </c>
       <c r="L68" t="s">
-        <v>520</v>
+        <v>585</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>521</v>
+        <v>586</v>
       </c>
       <c r="O68" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P68" t="n">
         <v>4</v>
@@ -7460,41 +8091,45 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>520</v>
+        <v>585</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>12823</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>2715</v>
+      </c>
+      <c r="C69" t="s">
+        <v>587</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>522</v>
+        <v>588</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>523</v>
+        <v>589</v>
       </c>
       <c r="J69" t="s">
-        <v>524</v>
+        <v>590</v>
       </c>
       <c r="K69" t="s">
-        <v>525</v>
+        <v>591</v>
       </c>
       <c r="L69" t="s">
-        <v>526</v>
+        <v>592</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
@@ -7521,56 +8156,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>527</v>
+        <v>593</v>
       </c>
       <c r="X69" t="s">
-        <v>528</v>
+        <v>594</v>
       </c>
       <c r="Y69" t="s">
-        <v>529</v>
+        <v>595</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>12823</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>80246</v>
+      </c>
+      <c r="C70" t="s">
+        <v>596</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>530</v>
+        <v>597</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>531</v>
+        <v>598</v>
       </c>
       <c r="J70" t="s">
-        <v>532</v>
+        <v>599</v>
       </c>
       <c r="K70" t="s">
-        <v>533</v>
+        <v>600</v>
       </c>
       <c r="L70" t="s">
-        <v>534</v>
+        <v>601</v>
       </c>
       <c r="M70" t="n">
         <v>2</v>
       </c>
       <c r="N70" t="s">
-        <v>535</v>
+        <v>602</v>
       </c>
       <c r="O70" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -7592,56 +8231,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>527</v>
+        <v>593</v>
       </c>
       <c r="X70" t="s">
-        <v>528</v>
+        <v>594</v>
       </c>
       <c r="Y70" t="s">
-        <v>536</v>
+        <v>603</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>12823</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>132269</v>
+      </c>
+      <c r="C71" t="s">
+        <v>604</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>537</v>
+        <v>605</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>538</v>
+        <v>606</v>
       </c>
       <c r="J71" t="s">
-        <v>539</v>
+        <v>607</v>
       </c>
       <c r="K71" t="s">
-        <v>540</v>
+        <v>608</v>
       </c>
       <c r="L71" t="s">
-        <v>541</v>
+        <v>609</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>535</v>
+        <v>602</v>
       </c>
       <c r="O71" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -7663,56 +8306,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>542</v>
+        <v>610</v>
       </c>
       <c r="X71" t="s">
-        <v>543</v>
+        <v>611</v>
       </c>
       <c r="Y71" t="s">
-        <v>544</v>
+        <v>612</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>12823</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>59491</v>
+      </c>
+      <c r="C72" t="s">
+        <v>613</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>545</v>
+        <v>614</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>546</v>
+        <v>615</v>
       </c>
       <c r="J72" t="s">
-        <v>547</v>
+        <v>616</v>
       </c>
       <c r="K72" t="s">
-        <v>548</v>
+        <v>617</v>
       </c>
       <c r="L72" t="s">
-        <v>549</v>
+        <v>618</v>
       </c>
       <c r="M72" t="n">
         <v>3</v>
       </c>
       <c r="N72" t="s">
-        <v>550</v>
+        <v>619</v>
       </c>
       <c r="O72" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="P72" t="n">
         <v>3</v>
@@ -7734,56 +8381,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>542</v>
+        <v>610</v>
       </c>
       <c r="X72" t="s">
-        <v>543</v>
+        <v>611</v>
       </c>
       <c r="Y72" t="s">
-        <v>551</v>
+        <v>620</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>12823</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>132270</v>
+      </c>
+      <c r="C73" t="s">
+        <v>621</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>552</v>
+        <v>622</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>553</v>
+        <v>623</v>
       </c>
       <c r="J73" t="s">
-        <v>554</v>
+        <v>624</v>
       </c>
       <c r="K73" t="s">
-        <v>555</v>
+        <v>625</v>
       </c>
       <c r="L73" t="s">
-        <v>556</v>
+        <v>626</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>550</v>
+        <v>619</v>
       </c>
       <c r="O73" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P73" t="s"/>
       <c r="Q73" t="s"/>
@@ -7795,56 +8446,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>557</v>
+        <v>627</v>
       </c>
       <c r="X73" t="s">
-        <v>558</v>
+        <v>628</v>
       </c>
       <c r="Y73" t="s">
-        <v>559</v>
+        <v>629</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>12823</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>132271</v>
+      </c>
+      <c r="C74" t="s">
+        <v>630</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>560</v>
+        <v>631</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>561</v>
+        <v>632</v>
       </c>
       <c r="J74" t="s">
-        <v>562</v>
+        <v>633</v>
       </c>
       <c r="K74" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="L74" t="s">
-        <v>563</v>
+        <v>634</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
       </c>
       <c r="N74" t="s">
-        <v>564</v>
+        <v>635</v>
       </c>
       <c r="O74" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P74" t="n">
         <v>3</v>
@@ -7866,56 +8521,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>565</v>
+        <v>636</v>
       </c>
       <c r="X74" t="s">
-        <v>566</v>
+        <v>637</v>
       </c>
       <c r="Y74" t="s">
-        <v>567</v>
+        <v>638</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>12823</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>132272</v>
+      </c>
+      <c r="C75" t="s">
+        <v>639</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>568</v>
+        <v>640</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>569</v>
+        <v>641</v>
       </c>
       <c r="J75" t="s">
-        <v>570</v>
+        <v>642</v>
       </c>
       <c r="K75" t="s">
-        <v>571</v>
+        <v>643</v>
       </c>
       <c r="L75" t="s">
-        <v>572</v>
+        <v>644</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>564</v>
+        <v>635</v>
       </c>
       <c r="O75" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P75" t="n">
         <v>3</v>
@@ -7937,56 +8596,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>565</v>
+        <v>636</v>
       </c>
       <c r="X75" t="s">
-        <v>566</v>
+        <v>637</v>
       </c>
       <c r="Y75" t="s">
-        <v>573</v>
+        <v>645</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>12823</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>9169</v>
+      </c>
+      <c r="C76" t="s">
+        <v>646</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>574</v>
+        <v>647</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>575</v>
+        <v>648</v>
       </c>
       <c r="J76" t="s">
-        <v>576</v>
+        <v>649</v>
       </c>
       <c r="K76" t="s">
-        <v>577</v>
+        <v>650</v>
       </c>
       <c r="L76" t="s">
-        <v>578</v>
+        <v>651</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
       </c>
       <c r="N76" t="s">
-        <v>564</v>
+        <v>635</v>
       </c>
       <c r="O76" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P76" t="n">
         <v>4</v>
@@ -8008,56 +8671,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>579</v>
+        <v>652</v>
       </c>
       <c r="X76" t="s">
-        <v>580</v>
+        <v>653</v>
       </c>
       <c r="Y76" t="s">
-        <v>581</v>
+        <v>654</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>12823</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>132273</v>
+      </c>
+      <c r="C77" t="s">
+        <v>655</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>582</v>
+        <v>656</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>583</v>
+        <v>657</v>
       </c>
       <c r="J77" t="s">
-        <v>584</v>
+        <v>658</v>
       </c>
       <c r="K77" t="s">
-        <v>585</v>
+        <v>659</v>
       </c>
       <c r="L77" t="s">
-        <v>586</v>
+        <v>660</v>
       </c>
       <c r="M77" t="n">
         <v>3</v>
       </c>
       <c r="N77" t="s">
-        <v>564</v>
+        <v>635</v>
       </c>
       <c r="O77" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P77" t="n">
         <v>3</v>
@@ -8081,50 +8748,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>587</v>
+        <v>661</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>12823</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>45383</v>
+      </c>
+      <c r="C78" t="s">
+        <v>662</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>588</v>
+        <v>663</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>589</v>
+        <v>664</v>
       </c>
       <c r="J78" t="s">
-        <v>590</v>
+        <v>665</v>
       </c>
       <c r="K78" t="s">
-        <v>591</v>
+        <v>666</v>
       </c>
       <c r="L78" t="s">
-        <v>592</v>
+        <v>667</v>
       </c>
       <c r="M78" t="n">
         <v>3</v>
       </c>
       <c r="N78" t="s">
-        <v>564</v>
+        <v>635</v>
       </c>
       <c r="O78" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P78" t="n">
         <v>2</v>
@@ -8148,41 +8819,45 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>593</v>
+        <v>668</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>12823</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>132274</v>
+      </c>
+      <c r="C79" t="s">
+        <v>669</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>594</v>
+        <v>670</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>595</v>
+        <v>671</v>
       </c>
       <c r="J79" t="s">
-        <v>590</v>
+        <v>665</v>
       </c>
       <c r="K79" t="s">
-        <v>596</v>
+        <v>672</v>
       </c>
       <c r="L79" t="s">
-        <v>597</v>
+        <v>673</v>
       </c>
       <c r="M79" t="n">
         <v>3</v>
@@ -8211,50 +8886,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>597</v>
+        <v>673</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>12823</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>132275</v>
+      </c>
+      <c r="C80" t="s">
+        <v>674</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>598</v>
+        <v>675</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>599</v>
+        <v>676</v>
       </c>
       <c r="J80" t="s">
-        <v>600</v>
+        <v>677</v>
       </c>
       <c r="K80" t="s">
-        <v>601</v>
+        <v>678</v>
       </c>
       <c r="L80" t="s">
-        <v>602</v>
+        <v>679</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>603</v>
+        <v>680</v>
       </c>
       <c r="O80" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P80" t="n">
         <v>4</v>
@@ -8278,50 +8957,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>602</v>
+        <v>679</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>12823</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>132276</v>
+      </c>
+      <c r="C81" t="s">
+        <v>681</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>604</v>
+        <v>682</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>605</v>
+        <v>683</v>
       </c>
       <c r="J81" t="s">
-        <v>606</v>
+        <v>684</v>
       </c>
       <c r="K81" t="s">
-        <v>607</v>
+        <v>685</v>
       </c>
       <c r="L81" t="s">
-        <v>608</v>
+        <v>686</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>603</v>
+        <v>680</v>
       </c>
       <c r="O81" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -8345,50 +9028,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>608</v>
+        <v>686</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>12823</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>132277</v>
+      </c>
+      <c r="C82" t="s">
+        <v>687</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>609</v>
+        <v>688</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>610</v>
+        <v>689</v>
       </c>
       <c r="J82" t="s">
-        <v>606</v>
+        <v>684</v>
       </c>
       <c r="K82" t="s">
-        <v>611</v>
+        <v>690</v>
       </c>
       <c r="L82" t="s">
-        <v>612</v>
+        <v>691</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>603</v>
+        <v>680</v>
       </c>
       <c r="O82" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="P82" t="s"/>
       <c r="Q82" t="s"/>
@@ -8402,50 +9089,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>613</v>
+        <v>692</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>12823</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>132278</v>
+      </c>
+      <c r="C83" t="s">
+        <v>693</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>614</v>
+        <v>694</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>615</v>
+        <v>695</v>
       </c>
       <c r="J83" t="s">
-        <v>616</v>
+        <v>696</v>
       </c>
       <c r="K83" t="s">
-        <v>617</v>
+        <v>697</v>
       </c>
       <c r="L83" t="s">
-        <v>618</v>
+        <v>698</v>
       </c>
       <c r="M83" t="n">
         <v>3</v>
       </c>
       <c r="N83" t="s">
-        <v>515</v>
+        <v>579</v>
       </c>
       <c r="O83" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P83" t="n">
         <v>3</v>
@@ -8469,50 +9160,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>619</v>
+        <v>699</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>12823</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>132279</v>
+      </c>
+      <c r="C84" t="s">
+        <v>700</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>621</v>
+        <v>702</v>
       </c>
       <c r="J84" t="s">
-        <v>622</v>
+        <v>703</v>
       </c>
       <c r="K84" t="s">
-        <v>623</v>
+        <v>704</v>
       </c>
       <c r="L84" t="s">
-        <v>624</v>
+        <v>705</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>625</v>
+        <v>706</v>
       </c>
       <c r="O84" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P84" t="n">
         <v>4</v>
@@ -8536,50 +9231,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>626</v>
+        <v>707</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>12823</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>132280</v>
+      </c>
+      <c r="C85" t="s">
+        <v>708</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>627</v>
+        <v>709</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>628</v>
+        <v>710</v>
       </c>
       <c r="J85" t="s">
-        <v>629</v>
+        <v>711</v>
       </c>
       <c r="K85" t="s">
-        <v>630</v>
+        <v>712</v>
       </c>
       <c r="L85" t="s">
-        <v>631</v>
+        <v>713</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>515</v>
+        <v>579</v>
       </c>
       <c r="O85" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -8603,50 +9302,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>631</v>
+        <v>713</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>12823</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>14014</v>
+      </c>
+      <c r="C86" t="s">
+        <v>714</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>632</v>
+        <v>715</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>633</v>
+        <v>716</v>
       </c>
       <c r="J86" t="s">
-        <v>634</v>
+        <v>717</v>
       </c>
       <c r="K86" t="s">
-        <v>635</v>
+        <v>718</v>
       </c>
       <c r="L86" t="s">
-        <v>636</v>
+        <v>719</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>625</v>
+        <v>706</v>
       </c>
       <c r="O86" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -8670,50 +9373,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>636</v>
+        <v>719</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>12823</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>132281</v>
+      </c>
+      <c r="C87" t="s">
+        <v>720</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>637</v>
+        <v>721</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>638</v>
+        <v>722</v>
       </c>
       <c r="J87" t="s">
-        <v>639</v>
+        <v>723</v>
       </c>
       <c r="K87" t="s">
-        <v>640</v>
+        <v>724</v>
       </c>
       <c r="L87" t="s">
-        <v>641</v>
+        <v>725</v>
       </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
       <c r="N87" t="s">
-        <v>642</v>
+        <v>726</v>
       </c>
       <c r="O87" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P87" t="s"/>
       <c r="Q87" t="s"/>
@@ -8729,50 +9436,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>643</v>
+        <v>727</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>12823</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>9329</v>
+      </c>
+      <c r="C88" t="s">
+        <v>728</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>644</v>
+        <v>729</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>645</v>
+        <v>730</v>
       </c>
       <c r="J88" t="s">
-        <v>646</v>
+        <v>731</v>
       </c>
       <c r="K88" t="s">
-        <v>647</v>
+        <v>732</v>
       </c>
       <c r="L88" t="s">
-        <v>648</v>
+        <v>733</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>649</v>
+        <v>734</v>
       </c>
       <c r="O88" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -8796,50 +9507,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>648</v>
+        <v>733</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>12823</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>6383</v>
+      </c>
+      <c r="C89" t="s">
+        <v>735</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>650</v>
+        <v>736</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>651</v>
+        <v>737</v>
       </c>
       <c r="J89" t="s">
-        <v>652</v>
+        <v>738</v>
       </c>
       <c r="K89" t="s">
-        <v>653</v>
+        <v>739</v>
       </c>
       <c r="L89" t="s">
-        <v>654</v>
+        <v>740</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
       </c>
       <c r="N89" t="s">
-        <v>655</v>
+        <v>741</v>
       </c>
       <c r="O89" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -8863,50 +9578,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>654</v>
+        <v>740</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>12823</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>132282</v>
+      </c>
+      <c r="C90" t="s">
+        <v>742</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>656</v>
+        <v>743</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>657</v>
+        <v>744</v>
       </c>
       <c r="J90" t="s">
-        <v>658</v>
+        <v>745</v>
       </c>
       <c r="K90" t="s">
-        <v>659</v>
+        <v>746</v>
       </c>
       <c r="L90" t="s">
-        <v>660</v>
+        <v>747</v>
       </c>
       <c r="M90" t="n">
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>661</v>
+        <v>748</v>
       </c>
       <c r="O90" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="P90" t="s"/>
       <c r="Q90" t="s"/>
@@ -8920,50 +9639,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>662</v>
+        <v>749</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>12823</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>132283</v>
+      </c>
+      <c r="C91" t="s">
+        <v>750</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>663</v>
+        <v>751</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>664</v>
+        <v>752</v>
       </c>
       <c r="J91" t="s">
-        <v>665</v>
+        <v>753</v>
       </c>
       <c r="K91" t="s">
-        <v>666</v>
+        <v>754</v>
       </c>
       <c r="L91" t="s">
-        <v>667</v>
+        <v>755</v>
       </c>
       <c r="M91" t="n">
         <v>4</v>
       </c>
       <c r="N91" t="s">
-        <v>642</v>
+        <v>726</v>
       </c>
       <c r="O91" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P91" t="n">
         <v>4</v>
@@ -8987,50 +9710,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>668</v>
+        <v>756</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>12823</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>132284</v>
+      </c>
+      <c r="C92" t="s">
+        <v>757</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>669</v>
+        <v>758</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>670</v>
+        <v>759</v>
       </c>
       <c r="J92" t="s">
-        <v>671</v>
+        <v>760</v>
       </c>
       <c r="K92" t="s">
-        <v>672</v>
+        <v>761</v>
       </c>
       <c r="L92" t="s">
-        <v>673</v>
+        <v>762</v>
       </c>
       <c r="M92" t="n">
         <v>3</v>
       </c>
       <c r="N92" t="s">
-        <v>655</v>
+        <v>741</v>
       </c>
       <c r="O92" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P92" t="n">
         <v>4</v>
@@ -9052,56 +9779,60 @@
         <v>0</v>
       </c>
       <c r="W92" t="s">
-        <v>674</v>
+        <v>763</v>
       </c>
       <c r="X92" t="s">
-        <v>675</v>
+        <v>764</v>
       </c>
       <c r="Y92" t="s">
-        <v>676</v>
+        <v>765</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>12823</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>132285</v>
+      </c>
+      <c r="C93" t="s">
+        <v>766</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>677</v>
+        <v>767</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>678</v>
+        <v>768</v>
       </c>
       <c r="J93" t="s">
-        <v>679</v>
+        <v>769</v>
       </c>
       <c r="K93" t="s">
-        <v>680</v>
+        <v>770</v>
       </c>
       <c r="L93" t="s">
-        <v>681</v>
+        <v>771</v>
       </c>
       <c r="M93" t="n">
         <v>2</v>
       </c>
       <c r="N93" t="s">
-        <v>655</v>
+        <v>741</v>
       </c>
       <c r="O93" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="P93" t="n">
         <v>3</v>
@@ -9125,50 +9856,54 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>682</v>
+        <v>772</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>12823</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>132286</v>
+      </c>
+      <c r="C94" t="s">
+        <v>773</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>683</v>
+        <v>774</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>684</v>
+        <v>775</v>
       </c>
       <c r="J94" t="s">
-        <v>685</v>
+        <v>776</v>
       </c>
       <c r="K94" t="s">
-        <v>686</v>
+        <v>777</v>
       </c>
       <c r="L94" t="s">
-        <v>687</v>
+        <v>778</v>
       </c>
       <c r="M94" t="n">
         <v>4</v>
       </c>
       <c r="N94" t="s">
-        <v>655</v>
+        <v>741</v>
       </c>
       <c r="O94" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P94" t="n">
         <v>4</v>
@@ -9190,56 +9925,60 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>674</v>
+        <v>763</v>
       </c>
       <c r="X94" t="s">
-        <v>675</v>
+        <v>764</v>
       </c>
       <c r="Y94" t="s">
-        <v>688</v>
+        <v>779</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>12823</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>132287</v>
+      </c>
+      <c r="C95" t="s">
+        <v>780</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>689</v>
+        <v>781</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>690</v>
+        <v>782</v>
       </c>
       <c r="J95" t="s">
-        <v>691</v>
+        <v>783</v>
       </c>
       <c r="K95" t="s">
-        <v>692</v>
+        <v>784</v>
       </c>
       <c r="L95" t="s">
-        <v>693</v>
+        <v>785</v>
       </c>
       <c r="M95" t="n">
         <v>4</v>
       </c>
       <c r="N95" t="s">
-        <v>694</v>
+        <v>786</v>
       </c>
       <c r="O95" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P95" t="n">
         <v>4</v>
@@ -9261,56 +10000,60 @@
         <v>0</v>
       </c>
       <c r="W95" t="s">
-        <v>695</v>
+        <v>787</v>
       </c>
       <c r="X95" t="s">
-        <v>696</v>
+        <v>788</v>
       </c>
       <c r="Y95" t="s">
-        <v>697</v>
+        <v>789</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>12823</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>132288</v>
+      </c>
+      <c r="C96" t="s">
+        <v>790</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>698</v>
+        <v>791</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>699</v>
+        <v>792</v>
       </c>
       <c r="J96" t="s">
-        <v>700</v>
+        <v>793</v>
       </c>
       <c r="K96" t="s">
-        <v>701</v>
+        <v>794</v>
       </c>
       <c r="L96" t="s">
-        <v>702</v>
+        <v>795</v>
       </c>
       <c r="M96" t="n">
         <v>3</v>
       </c>
       <c r="N96" t="s">
-        <v>694</v>
+        <v>786</v>
       </c>
       <c r="O96" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="P96" t="n">
         <v>5</v>
@@ -9332,56 +10075,60 @@
         <v>0</v>
       </c>
       <c r="W96" t="s">
-        <v>695</v>
+        <v>787</v>
       </c>
       <c r="X96" t="s">
-        <v>696</v>
+        <v>788</v>
       </c>
       <c r="Y96" t="s">
-        <v>703</v>
+        <v>796</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>12823</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>90490</v>
+      </c>
+      <c r="C97" t="s">
+        <v>797</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>704</v>
+        <v>798</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>705</v>
+        <v>799</v>
       </c>
       <c r="J97" t="s">
-        <v>700</v>
+        <v>793</v>
       </c>
       <c r="K97" t="s">
-        <v>706</v>
+        <v>800</v>
       </c>
       <c r="L97" t="s">
-        <v>707</v>
+        <v>801</v>
       </c>
       <c r="M97" t="n">
         <v>3</v>
       </c>
       <c r="N97" t="s">
-        <v>694</v>
+        <v>786</v>
       </c>
       <c r="O97" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P97" t="n">
         <v>4</v>
@@ -9403,56 +10150,60 @@
         <v>0</v>
       </c>
       <c r="W97" t="s">
-        <v>695</v>
+        <v>787</v>
       </c>
       <c r="X97" t="s">
-        <v>696</v>
+        <v>788</v>
       </c>
       <c r="Y97" t="s">
-        <v>708</v>
+        <v>802</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>12823</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>115703</v>
+      </c>
+      <c r="C98" t="s">
+        <v>803</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>709</v>
+        <v>804</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>710</v>
+        <v>805</v>
       </c>
       <c r="J98" t="s">
-        <v>711</v>
+        <v>806</v>
       </c>
       <c r="K98" t="s">
-        <v>712</v>
+        <v>807</v>
       </c>
       <c r="L98" t="s">
-        <v>713</v>
+        <v>808</v>
       </c>
       <c r="M98" t="n">
         <v>3</v>
       </c>
       <c r="N98" t="s">
-        <v>649</v>
+        <v>734</v>
       </c>
       <c r="O98" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="P98" t="n">
         <v>3</v>
@@ -9474,56 +10225,60 @@
         <v>0</v>
       </c>
       <c r="W98" t="s">
-        <v>714</v>
+        <v>809</v>
       </c>
       <c r="X98" t="s">
-        <v>715</v>
+        <v>810</v>
       </c>
       <c r="Y98" t="s">
-        <v>716</v>
+        <v>811</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>12823</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>21747</v>
+      </c>
+      <c r="C99" t="s">
+        <v>812</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>717</v>
+        <v>813</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>718</v>
+        <v>814</v>
       </c>
       <c r="J99" t="s">
-        <v>719</v>
+        <v>815</v>
       </c>
       <c r="K99" t="s">
-        <v>720</v>
+        <v>816</v>
       </c>
       <c r="L99" t="s">
-        <v>721</v>
+        <v>817</v>
       </c>
       <c r="M99" t="n">
         <v>4</v>
       </c>
       <c r="N99" t="s">
-        <v>722</v>
+        <v>818</v>
       </c>
       <c r="O99" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="P99" t="n">
         <v>4</v>
@@ -9545,56 +10300,60 @@
         <v>0</v>
       </c>
       <c r="W99" t="s">
-        <v>723</v>
+        <v>819</v>
       </c>
       <c r="X99" t="s">
-        <v>724</v>
+        <v>820</v>
       </c>
       <c r="Y99" t="s">
-        <v>725</v>
+        <v>821</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>12823</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>132289</v>
+      </c>
+      <c r="C100" t="s">
+        <v>822</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>726</v>
+        <v>823</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>727</v>
+        <v>824</v>
       </c>
       <c r="J100" t="s">
-        <v>728</v>
+        <v>825</v>
       </c>
       <c r="K100" t="s">
-        <v>729</v>
+        <v>826</v>
       </c>
       <c r="L100" t="s">
-        <v>730</v>
+        <v>827</v>
       </c>
       <c r="M100" t="n">
         <v>5</v>
       </c>
       <c r="N100" t="s">
-        <v>731</v>
+        <v>828</v>
       </c>
       <c r="O100" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P100" t="n">
         <v>5</v>
@@ -9616,56 +10375,60 @@
         <v>0</v>
       </c>
       <c r="W100" t="s">
-        <v>723</v>
+        <v>819</v>
       </c>
       <c r="X100" t="s">
-        <v>724</v>
+        <v>820</v>
       </c>
       <c r="Y100" t="s">
-        <v>732</v>
+        <v>829</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>12823</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>18342</v>
+      </c>
+      <c r="C101" t="s">
+        <v>830</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>733</v>
+        <v>831</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>734</v>
+        <v>832</v>
       </c>
       <c r="J101" t="s">
-        <v>735</v>
+        <v>833</v>
       </c>
       <c r="K101" t="s">
-        <v>736</v>
+        <v>834</v>
       </c>
       <c r="L101" t="s">
-        <v>737</v>
+        <v>835</v>
       </c>
       <c r="M101" t="n">
         <v>5</v>
       </c>
       <c r="N101" t="s">
-        <v>738</v>
+        <v>836</v>
       </c>
       <c r="O101" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P101" t="n">
         <v>5</v>
@@ -9687,56 +10450,60 @@
         <v>0</v>
       </c>
       <c r="W101" t="s">
-        <v>739</v>
+        <v>837</v>
       </c>
       <c r="X101" t="s">
-        <v>740</v>
+        <v>838</v>
       </c>
       <c r="Y101" t="s">
-        <v>741</v>
+        <v>839</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>12823</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>132290</v>
+      </c>
+      <c r="C102" t="s">
+        <v>840</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>742</v>
+        <v>841</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>743</v>
+        <v>842</v>
       </c>
       <c r="J102" t="s">
-        <v>744</v>
+        <v>843</v>
       </c>
       <c r="K102" t="s">
-        <v>745</v>
+        <v>844</v>
       </c>
       <c r="L102" t="s">
-        <v>746</v>
+        <v>845</v>
       </c>
       <c r="M102" t="n">
         <v>5</v>
       </c>
       <c r="N102" t="s">
-        <v>747</v>
+        <v>846</v>
       </c>
       <c r="O102" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="P102" t="n">
         <v>5</v>
@@ -9758,47 +10525,51 @@
         <v>0</v>
       </c>
       <c r="W102" t="s">
-        <v>748</v>
+        <v>847</v>
       </c>
       <c r="X102" t="s">
-        <v>749</v>
+        <v>848</v>
       </c>
       <c r="Y102" t="s">
-        <v>750</v>
+        <v>849</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>12823</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>132291</v>
+      </c>
+      <c r="C103" t="s">
+        <v>850</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>751</v>
+        <v>851</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>752</v>
+        <v>852</v>
       </c>
       <c r="J103" t="s">
-        <v>753</v>
+        <v>853</v>
       </c>
       <c r="K103" t="s">
-        <v>754</v>
+        <v>854</v>
       </c>
       <c r="L103" t="s">
-        <v>755</v>
+        <v>855</v>
       </c>
       <c r="M103" t="n">
         <v>4</v>
@@ -9827,50 +10598,54 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>756</v>
+        <v>856</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>12823</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>132292</v>
+      </c>
+      <c r="C104" t="s">
+        <v>857</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>757</v>
+        <v>858</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>758</v>
+        <v>859</v>
       </c>
       <c r="J104" t="s">
-        <v>759</v>
+        <v>860</v>
       </c>
       <c r="K104" t="s">
-        <v>760</v>
+        <v>861</v>
       </c>
       <c r="L104" t="s">
-        <v>761</v>
+        <v>862</v>
       </c>
       <c r="M104" t="n">
         <v>2</v>
       </c>
       <c r="N104" t="s">
-        <v>762</v>
+        <v>863</v>
       </c>
       <c r="O104" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P104" t="s"/>
       <c r="Q104" t="s"/>
@@ -9882,56 +10657,60 @@
         <v>0</v>
       </c>
       <c r="W104" t="s">
-        <v>763</v>
+        <v>864</v>
       </c>
       <c r="X104" t="s">
-        <v>764</v>
+        <v>865</v>
       </c>
       <c r="Y104" t="s">
-        <v>765</v>
+        <v>866</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>12823</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>132293</v>
+      </c>
+      <c r="C105" t="s">
+        <v>867</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>766</v>
+        <v>868</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>767</v>
+        <v>869</v>
       </c>
       <c r="J105" t="s">
-        <v>768</v>
+        <v>870</v>
       </c>
       <c r="K105" t="s">
-        <v>769</v>
+        <v>871</v>
       </c>
       <c r="L105" t="s">
-        <v>770</v>
+        <v>872</v>
       </c>
       <c r="M105" t="n">
         <v>4</v>
       </c>
       <c r="N105" t="s">
-        <v>762</v>
+        <v>863</v>
       </c>
       <c r="O105" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="P105" t="n">
         <v>4</v>
@@ -9953,56 +10732,60 @@
         <v>0</v>
       </c>
       <c r="W105" t="s">
-        <v>763</v>
+        <v>864</v>
       </c>
       <c r="X105" t="s">
-        <v>764</v>
+        <v>865</v>
       </c>
       <c r="Y105" t="s">
-        <v>771</v>
+        <v>873</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>12823</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>95244</v>
+      </c>
+      <c r="C106" t="s">
+        <v>874</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>772</v>
+        <v>875</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>773</v>
+        <v>876</v>
       </c>
       <c r="J106" t="s">
-        <v>774</v>
+        <v>877</v>
       </c>
       <c r="K106" t="s">
-        <v>775</v>
+        <v>878</v>
       </c>
       <c r="L106" t="s">
-        <v>776</v>
+        <v>879</v>
       </c>
       <c r="M106" t="n">
         <v>2</v>
       </c>
       <c r="N106" t="s">
-        <v>777</v>
+        <v>880</v>
       </c>
       <c r="O106" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P106" t="n">
         <v>2</v>
@@ -10026,50 +10809,54 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>778</v>
+        <v>881</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>12823</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>132294</v>
+      </c>
+      <c r="C107" t="s">
+        <v>882</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>779</v>
+        <v>883</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>780</v>
+        <v>884</v>
       </c>
       <c r="J107" t="s">
-        <v>781</v>
+        <v>885</v>
       </c>
       <c r="K107" t="s">
-        <v>782</v>
+        <v>886</v>
       </c>
       <c r="L107" t="s">
-        <v>783</v>
+        <v>887</v>
       </c>
       <c r="M107" t="n">
         <v>4</v>
       </c>
       <c r="N107" t="s">
-        <v>784</v>
+        <v>888</v>
       </c>
       <c r="O107" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P107" t="n">
         <v>4</v>
@@ -10093,50 +10880,54 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>785</v>
+        <v>889</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>12823</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>132295</v>
+      </c>
+      <c r="C108" t="s">
+        <v>890</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>786</v>
+        <v>891</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>787</v>
+        <v>892</v>
       </c>
       <c r="J108" t="s">
-        <v>788</v>
+        <v>893</v>
       </c>
       <c r="K108" t="s">
-        <v>789</v>
+        <v>894</v>
       </c>
       <c r="L108" t="s">
-        <v>790</v>
+        <v>895</v>
       </c>
       <c r="M108" t="n">
         <v>5</v>
       </c>
       <c r="N108" t="s">
-        <v>784</v>
+        <v>888</v>
       </c>
       <c r="O108" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P108" t="n">
         <v>5</v>
@@ -10160,41 +10951,45 @@
       <c r="W108" t="s"/>
       <c r="X108" t="s"/>
       <c r="Y108" t="s">
-        <v>790</v>
+        <v>895</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>12823</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>132296</v>
+      </c>
+      <c r="C109" t="s">
+        <v>896</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>791</v>
+        <v>897</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>792</v>
+        <v>898</v>
       </c>
       <c r="J109" t="s">
-        <v>793</v>
+        <v>899</v>
       </c>
       <c r="K109" t="s">
-        <v>794</v>
+        <v>900</v>
       </c>
       <c r="L109" t="s">
-        <v>795</v>
+        <v>901</v>
       </c>
       <c r="M109" t="n">
         <v>4</v>
@@ -10223,41 +11018,45 @@
       <c r="W109" t="s"/>
       <c r="X109" t="s"/>
       <c r="Y109" t="s">
-        <v>796</v>
+        <v>902</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>12823</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>132297</v>
+      </c>
+      <c r="C110" t="s">
+        <v>903</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>797</v>
+        <v>904</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>798</v>
+        <v>905</v>
       </c>
       <c r="J110" t="s">
-        <v>799</v>
+        <v>906</v>
       </c>
       <c r="K110" t="s">
-        <v>800</v>
+        <v>907</v>
       </c>
       <c r="L110" t="s">
-        <v>801</v>
+        <v>908</v>
       </c>
       <c r="M110" t="n">
         <v>3</v>
@@ -10286,50 +11085,54 @@
       <c r="W110" t="s"/>
       <c r="X110" t="s"/>
       <c r="Y110" t="s">
-        <v>801</v>
+        <v>908</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>12823</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>14734</v>
+      </c>
+      <c r="C111" t="s">
+        <v>909</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>802</v>
+        <v>910</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I111" t="s">
-        <v>803</v>
+        <v>911</v>
       </c>
       <c r="J111" t="s">
-        <v>799</v>
+        <v>906</v>
       </c>
       <c r="K111" t="s">
-        <v>804</v>
+        <v>912</v>
       </c>
       <c r="L111" t="s">
-        <v>805</v>
+        <v>913</v>
       </c>
       <c r="M111" t="n">
         <v>3</v>
       </c>
       <c r="N111" t="s">
-        <v>806</v>
+        <v>914</v>
       </c>
       <c r="O111" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P111" t="n">
         <v>3</v>
@@ -10353,50 +11156,54 @@
       <c r="W111" t="s"/>
       <c r="X111" t="s"/>
       <c r="Y111" t="s">
-        <v>805</v>
+        <v>913</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>12823</v>
       </c>
-      <c r="B112" t="s"/>
-      <c r="C112" t="s"/>
+      <c r="B112" t="n">
+        <v>132298</v>
+      </c>
+      <c r="C112" t="s">
+        <v>915</v>
+      </c>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>807</v>
+        <v>916</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I112" t="s">
-        <v>808</v>
+        <v>917</v>
       </c>
       <c r="J112" t="s">
-        <v>809</v>
+        <v>918</v>
       </c>
       <c r="K112" t="s">
-        <v>810</v>
+        <v>919</v>
       </c>
       <c r="L112" t="s">
-        <v>811</v>
+        <v>920</v>
       </c>
       <c r="M112" t="n">
         <v>3</v>
       </c>
       <c r="N112" t="s">
-        <v>812</v>
+        <v>921</v>
       </c>
       <c r="O112" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P112" t="n">
         <v>3</v>
@@ -10420,50 +11227,54 @@
       <c r="W112" t="s"/>
       <c r="X112" t="s"/>
       <c r="Y112" t="s">
-        <v>813</v>
+        <v>922</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>12823</v>
       </c>
-      <c r="B113" t="s"/>
-      <c r="C113" t="s"/>
+      <c r="B113" t="n">
+        <v>132299</v>
+      </c>
+      <c r="C113" t="s">
+        <v>923</v>
+      </c>
       <c r="D113" t="n">
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F113" t="s">
-        <v>814</v>
+        <v>924</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I113" t="s">
-        <v>815</v>
+        <v>925</v>
       </c>
       <c r="J113" t="s">
-        <v>816</v>
+        <v>926</v>
       </c>
       <c r="K113" t="s">
-        <v>817</v>
+        <v>927</v>
       </c>
       <c r="L113" t="s">
-        <v>818</v>
+        <v>928</v>
       </c>
       <c r="M113" t="n">
         <v>4</v>
       </c>
       <c r="N113" t="s">
-        <v>819</v>
+        <v>929</v>
       </c>
       <c r="O113" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P113" t="n">
         <v>5</v>
@@ -10487,41 +11298,45 @@
       <c r="W113" t="s"/>
       <c r="X113" t="s"/>
       <c r="Y113" t="s">
-        <v>818</v>
+        <v>928</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>12823</v>
       </c>
-      <c r="B114" t="s"/>
-      <c r="C114" t="s"/>
+      <c r="B114" t="n">
+        <v>132300</v>
+      </c>
+      <c r="C114" t="s">
+        <v>930</v>
+      </c>
       <c r="D114" t="n">
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F114" t="s">
-        <v>820</v>
+        <v>931</v>
       </c>
       <c r="G114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I114" t="s">
-        <v>821</v>
+        <v>932</v>
       </c>
       <c r="J114" t="s">
-        <v>822</v>
+        <v>933</v>
       </c>
       <c r="K114" t="s">
-        <v>823</v>
+        <v>934</v>
       </c>
       <c r="L114" t="s">
-        <v>824</v>
+        <v>935</v>
       </c>
       <c r="M114" t="n">
         <v>4</v>
@@ -10550,50 +11365,54 @@
       <c r="W114" t="s"/>
       <c r="X114" t="s"/>
       <c r="Y114" t="s">
-        <v>824</v>
+        <v>935</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>12823</v>
       </c>
-      <c r="B115" t="s"/>
-      <c r="C115" t="s"/>
+      <c r="B115" t="n">
+        <v>151</v>
+      </c>
+      <c r="C115" t="s">
+        <v>936</v>
+      </c>
       <c r="D115" t="n">
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F115" t="s">
-        <v>825</v>
+        <v>937</v>
       </c>
       <c r="G115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I115" t="s">
-        <v>826</v>
+        <v>938</v>
       </c>
       <c r="J115" t="s">
-        <v>827</v>
+        <v>939</v>
       </c>
       <c r="K115" t="s">
-        <v>828</v>
+        <v>940</v>
       </c>
       <c r="L115" t="s">
-        <v>829</v>
+        <v>941</v>
       </c>
       <c r="M115" t="n">
         <v>4</v>
       </c>
       <c r="N115" t="s">
-        <v>830</v>
+        <v>942</v>
       </c>
       <c r="O115" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P115" t="n">
         <v>4</v>
@@ -10615,50 +11434,54 @@
       <c r="W115" t="s"/>
       <c r="X115" t="s"/>
       <c r="Y115" t="s">
-        <v>829</v>
+        <v>941</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
         <v>12823</v>
       </c>
-      <c r="B116" t="s"/>
-      <c r="C116" t="s"/>
+      <c r="B116" t="n">
+        <v>132301</v>
+      </c>
+      <c r="C116" t="s">
+        <v>943</v>
+      </c>
       <c r="D116" t="n">
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F116" t="s">
-        <v>831</v>
+        <v>944</v>
       </c>
       <c r="G116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I116" t="s">
-        <v>832</v>
+        <v>945</v>
       </c>
       <c r="J116" t="s">
-        <v>833</v>
+        <v>946</v>
       </c>
       <c r="K116" t="s">
-        <v>834</v>
+        <v>947</v>
       </c>
       <c r="L116" t="s">
-        <v>835</v>
+        <v>948</v>
       </c>
       <c r="M116" t="n">
         <v>5</v>
       </c>
       <c r="N116" t="s">
-        <v>830</v>
+        <v>942</v>
       </c>
       <c r="O116" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P116" t="n">
         <v>5</v>
@@ -10678,50 +11501,54 @@
       <c r="W116" t="s"/>
       <c r="X116" t="s"/>
       <c r="Y116" t="s">
-        <v>835</v>
+        <v>948</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
         <v>12823</v>
       </c>
-      <c r="B117" t="s"/>
-      <c r="C117" t="s"/>
+      <c r="B117" t="n">
+        <v>132302</v>
+      </c>
+      <c r="C117" t="s">
+        <v>949</v>
+      </c>
       <c r="D117" t="n">
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F117" t="s">
-        <v>836</v>
+        <v>950</v>
       </c>
       <c r="G117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I117" t="s">
-        <v>837</v>
+        <v>951</v>
       </c>
       <c r="J117" t="s">
-        <v>838</v>
+        <v>952</v>
       </c>
       <c r="K117" t="s">
-        <v>839</v>
+        <v>953</v>
       </c>
       <c r="L117" t="s">
-        <v>840</v>
+        <v>954</v>
       </c>
       <c r="M117" t="n">
         <v>4</v>
       </c>
       <c r="N117" t="s">
-        <v>841</v>
+        <v>955</v>
       </c>
       <c r="O117" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P117" t="n">
         <v>3</v>
@@ -10745,50 +11572,54 @@
       <c r="W117" t="s"/>
       <c r="X117" t="s"/>
       <c r="Y117" t="s">
-        <v>842</v>
+        <v>956</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
         <v>12823</v>
       </c>
-      <c r="B118" t="s"/>
-      <c r="C118" t="s"/>
+      <c r="B118" t="n">
+        <v>132303</v>
+      </c>
+      <c r="C118" t="s">
+        <v>957</v>
+      </c>
       <c r="D118" t="n">
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F118" t="s">
-        <v>843</v>
+        <v>958</v>
       </c>
       <c r="G118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I118" t="s">
-        <v>844</v>
+        <v>959</v>
       </c>
       <c r="J118" t="s">
-        <v>845</v>
+        <v>960</v>
       </c>
       <c r="K118" t="s">
-        <v>846</v>
+        <v>961</v>
       </c>
       <c r="L118" t="s">
-        <v>847</v>
+        <v>962</v>
       </c>
       <c r="M118" t="n">
         <v>4</v>
       </c>
       <c r="N118" t="s">
-        <v>848</v>
+        <v>963</v>
       </c>
       <c r="O118" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P118" t="n">
         <v>4</v>
@@ -10812,50 +11643,54 @@
       <c r="W118" t="s"/>
       <c r="X118" t="s"/>
       <c r="Y118" t="s">
-        <v>847</v>
+        <v>962</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
         <v>12823</v>
       </c>
-      <c r="B119" t="s"/>
-      <c r="C119" t="s"/>
+      <c r="B119" t="n">
+        <v>132304</v>
+      </c>
+      <c r="C119" t="s">
+        <v>964</v>
+      </c>
       <c r="D119" t="n">
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F119" t="s">
-        <v>849</v>
+        <v>965</v>
       </c>
       <c r="G119" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H119" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I119" t="s">
-        <v>850</v>
+        <v>966</v>
       </c>
       <c r="J119" t="s">
-        <v>851</v>
+        <v>967</v>
       </c>
       <c r="K119" t="s">
-        <v>852</v>
+        <v>968</v>
       </c>
       <c r="L119" t="s">
-        <v>853</v>
+        <v>969</v>
       </c>
       <c r="M119" t="n">
         <v>4</v>
       </c>
       <c r="N119" t="s">
-        <v>854</v>
+        <v>970</v>
       </c>
       <c r="O119" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P119" t="n">
         <v>5</v>
@@ -10879,50 +11714,54 @@
       <c r="W119" t="s"/>
       <c r="X119" t="s"/>
       <c r="Y119" t="s">
-        <v>853</v>
+        <v>969</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
         <v>12823</v>
       </c>
-      <c r="B120" t="s"/>
-      <c r="C120" t="s"/>
+      <c r="B120" t="n">
+        <v>132305</v>
+      </c>
+      <c r="C120" t="s">
+        <v>971</v>
+      </c>
       <c r="D120" t="n">
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F120" t="s">
-        <v>855</v>
+        <v>972</v>
       </c>
       <c r="G120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H120" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I120" t="s">
-        <v>856</v>
+        <v>973</v>
       </c>
       <c r="J120" t="s">
-        <v>857</v>
+        <v>974</v>
       </c>
       <c r="K120" t="s">
-        <v>858</v>
+        <v>975</v>
       </c>
       <c r="L120" t="s">
-        <v>859</v>
+        <v>976</v>
       </c>
       <c r="M120" t="n">
         <v>3</v>
       </c>
       <c r="N120" t="s">
-        <v>860</v>
+        <v>977</v>
       </c>
       <c r="O120" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P120" t="n">
         <v>3</v>
@@ -10946,50 +11785,54 @@
       <c r="W120" t="s"/>
       <c r="X120" t="s"/>
       <c r="Y120" t="s">
-        <v>859</v>
+        <v>976</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
         <v>12823</v>
       </c>
-      <c r="B121" t="s"/>
-      <c r="C121" t="s"/>
+      <c r="B121" t="n">
+        <v>81242</v>
+      </c>
+      <c r="C121" t="s">
+        <v>978</v>
+      </c>
       <c r="D121" t="n">
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F121" t="s">
-        <v>861</v>
+        <v>979</v>
       </c>
       <c r="G121" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H121" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I121" t="s">
-        <v>862</v>
+        <v>980</v>
       </c>
       <c r="J121" t="s">
-        <v>863</v>
+        <v>981</v>
       </c>
       <c r="K121" t="s">
-        <v>864</v>
+        <v>982</v>
       </c>
       <c r="L121" t="s">
-        <v>865</v>
+        <v>983</v>
       </c>
       <c r="M121" t="n">
         <v>3</v>
       </c>
       <c r="N121" t="s">
-        <v>866</v>
+        <v>984</v>
       </c>
       <c r="O121" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P121" t="n">
         <v>2</v>
@@ -11013,50 +11856,54 @@
       <c r="W121" t="s"/>
       <c r="X121" t="s"/>
       <c r="Y121" t="s">
-        <v>867</v>
+        <v>985</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
         <v>12823</v>
       </c>
-      <c r="B122" t="s"/>
-      <c r="C122" t="s"/>
+      <c r="B122" t="n">
+        <v>132306</v>
+      </c>
+      <c r="C122" t="s">
+        <v>986</v>
+      </c>
       <c r="D122" t="n">
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F122" t="s">
-        <v>868</v>
+        <v>987</v>
       </c>
       <c r="G122" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H122" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I122" t="s">
-        <v>869</v>
+        <v>988</v>
       </c>
       <c r="J122" t="s">
-        <v>870</v>
+        <v>989</v>
       </c>
       <c r="K122" t="s">
-        <v>871</v>
+        <v>990</v>
       </c>
       <c r="L122" t="s">
-        <v>872</v>
+        <v>991</v>
       </c>
       <c r="M122" t="n">
         <v>3</v>
       </c>
       <c r="N122" t="s">
-        <v>873</v>
+        <v>992</v>
       </c>
       <c r="O122" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P122" t="n">
         <v>2</v>
@@ -11078,41 +11925,45 @@
       <c r="W122" t="s"/>
       <c r="X122" t="s"/>
       <c r="Y122" t="s">
-        <v>874</v>
+        <v>993</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
         <v>12823</v>
       </c>
-      <c r="B123" t="s"/>
-      <c r="C123" t="s"/>
+      <c r="B123" t="n">
+        <v>132307</v>
+      </c>
+      <c r="C123" t="s">
+        <v>994</v>
+      </c>
       <c r="D123" t="n">
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F123" t="s">
-        <v>875</v>
+        <v>995</v>
       </c>
       <c r="G123" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H123" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I123" t="s">
-        <v>876</v>
+        <v>996</v>
       </c>
       <c r="J123" t="s">
-        <v>877</v>
+        <v>997</v>
       </c>
       <c r="K123" t="s">
-        <v>878</v>
+        <v>998</v>
       </c>
       <c r="L123" t="s">
-        <v>879</v>
+        <v>999</v>
       </c>
       <c r="M123" t="n">
         <v>3</v>
@@ -11139,41 +11990,45 @@
       <c r="W123" t="s"/>
       <c r="X123" t="s"/>
       <c r="Y123" t="s">
-        <v>880</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
         <v>12823</v>
       </c>
-      <c r="B124" t="s"/>
-      <c r="C124" t="s"/>
+      <c r="B124" t="n">
+        <v>7066</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1001</v>
+      </c>
       <c r="D124" t="n">
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F124" t="s">
-        <v>881</v>
+        <v>1002</v>
       </c>
       <c r="G124" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H124" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I124" t="s">
-        <v>882</v>
+        <v>1003</v>
       </c>
       <c r="J124" t="s">
-        <v>883</v>
+        <v>1004</v>
       </c>
       <c r="K124" t="s">
-        <v>884</v>
+        <v>1005</v>
       </c>
       <c r="L124" t="s">
-        <v>885</v>
+        <v>1006</v>
       </c>
       <c r="M124" t="n">
         <v>3</v>
@@ -11200,7 +12055,7 @@
       <c r="W124" t="s"/>
       <c r="X124" t="s"/>
       <c r="Y124" t="s">
-        <v>885</v>
+        <v>1006</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_147.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_147.xlsx
@@ -3620,7 +3620,7 @@
         <v>12823</v>
       </c>
       <c r="B2" t="n">
-        <v>132225</v>
+        <v>163016</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -3746,7 +3746,7 @@
         <v>12823</v>
       </c>
       <c r="B4" t="n">
-        <v>132226</v>
+        <v>163017</v>
       </c>
       <c r="C4" t="s">
         <v>67</v>
@@ -3811,7 +3811,7 @@
         <v>12823</v>
       </c>
       <c r="B5" t="n">
-        <v>132227</v>
+        <v>163018</v>
       </c>
       <c r="C5" t="s">
         <v>77</v>
@@ -3941,7 +3941,7 @@
         <v>12823</v>
       </c>
       <c r="B7" t="n">
-        <v>132228</v>
+        <v>163019</v>
       </c>
       <c r="C7" t="s">
         <v>95</v>
@@ -4140,7 +4140,7 @@
         <v>12823</v>
       </c>
       <c r="B10" t="n">
-        <v>132229</v>
+        <v>163020</v>
       </c>
       <c r="C10" t="s">
         <v>122</v>
@@ -4268,7 +4268,7 @@
         <v>12823</v>
       </c>
       <c r="B12" t="n">
-        <v>132230</v>
+        <v>163021</v>
       </c>
       <c r="C12" t="s">
         <v>137</v>
@@ -4329,7 +4329,7 @@
         <v>12823</v>
       </c>
       <c r="B13" t="n">
-        <v>132231</v>
+        <v>163022</v>
       </c>
       <c r="C13" t="s">
         <v>144</v>
@@ -4465,7 +4465,7 @@
         <v>12823</v>
       </c>
       <c r="B15" t="n">
-        <v>132232</v>
+        <v>163023</v>
       </c>
       <c r="C15" t="s">
         <v>159</v>
@@ -4729,7 +4729,7 @@
         <v>12823</v>
       </c>
       <c r="B19" t="n">
-        <v>132233</v>
+        <v>163024</v>
       </c>
       <c r="C19" t="s">
         <v>189</v>
@@ -4920,7 +4920,7 @@
         <v>12823</v>
       </c>
       <c r="B22" t="n">
-        <v>132234</v>
+        <v>163025</v>
       </c>
       <c r="C22" t="s">
         <v>210</v>
@@ -4985,7 +4985,7 @@
         <v>12823</v>
       </c>
       <c r="B23" t="n">
-        <v>132235</v>
+        <v>132236</v>
       </c>
       <c r="C23" t="s">
         <v>217</v>
@@ -5117,7 +5117,7 @@
         <v>12823</v>
       </c>
       <c r="B25" t="n">
-        <v>132236</v>
+        <v>163026</v>
       </c>
       <c r="C25" t="s">
         <v>233</v>
@@ -5184,7 +5184,7 @@
         <v>12823</v>
       </c>
       <c r="B26" t="n">
-        <v>132237</v>
+        <v>163027</v>
       </c>
       <c r="C26" t="s">
         <v>239</v>
@@ -5245,7 +5245,7 @@
         <v>12823</v>
       </c>
       <c r="B27" t="n">
-        <v>132234</v>
+        <v>132236</v>
       </c>
       <c r="C27" t="s">
         <v>217</v>
@@ -5306,7 +5306,7 @@
         <v>12823</v>
       </c>
       <c r="B28" t="n">
-        <v>132238</v>
+        <v>163028</v>
       </c>
       <c r="C28" t="s">
         <v>253</v>
@@ -5371,7 +5371,7 @@
         <v>12823</v>
       </c>
       <c r="B29" t="n">
-        <v>132239</v>
+        <v>163029</v>
       </c>
       <c r="C29" t="s">
         <v>263</v>
@@ -5442,7 +5442,7 @@
         <v>12823</v>
       </c>
       <c r="B30" t="n">
-        <v>132240</v>
+        <v>163030</v>
       </c>
       <c r="C30" t="s">
         <v>273</v>
@@ -5511,7 +5511,7 @@
         <v>12823</v>
       </c>
       <c r="B31" t="n">
-        <v>132241</v>
+        <v>163031</v>
       </c>
       <c r="C31" t="s">
         <v>281</v>
@@ -5643,7 +5643,7 @@
         <v>12823</v>
       </c>
       <c r="B33" t="n">
-        <v>132242</v>
+        <v>163032</v>
       </c>
       <c r="C33" t="s">
         <v>295</v>
@@ -5712,7 +5712,7 @@
         <v>12823</v>
       </c>
       <c r="B34" t="n">
-        <v>132243</v>
+        <v>163033</v>
       </c>
       <c r="C34" t="s">
         <v>304</v>
@@ -5773,7 +5773,7 @@
         <v>12823</v>
       </c>
       <c r="B35" t="n">
-        <v>132244</v>
+        <v>163034</v>
       </c>
       <c r="C35" t="s">
         <v>313</v>
@@ -5838,7 +5838,7 @@
         <v>12823</v>
       </c>
       <c r="B36" t="n">
-        <v>132245</v>
+        <v>163035</v>
       </c>
       <c r="C36" t="s">
         <v>322</v>
@@ -5909,7 +5909,7 @@
         <v>12823</v>
       </c>
       <c r="B37" t="n">
-        <v>132246</v>
+        <v>163036</v>
       </c>
       <c r="C37" t="s">
         <v>330</v>
@@ -5976,7 +5976,7 @@
         <v>12823</v>
       </c>
       <c r="B38" t="n">
-        <v>132247</v>
+        <v>163037</v>
       </c>
       <c r="C38" t="s">
         <v>338</v>
@@ -6037,7 +6037,7 @@
         <v>12823</v>
       </c>
       <c r="B39" t="n">
-        <v>132248</v>
+        <v>163038</v>
       </c>
       <c r="C39" t="s">
         <v>345</v>
@@ -6108,7 +6108,7 @@
         <v>12823</v>
       </c>
       <c r="B40" t="n">
-        <v>132249</v>
+        <v>163039</v>
       </c>
       <c r="C40" t="s">
         <v>355</v>
@@ -6307,7 +6307,7 @@
         <v>12823</v>
       </c>
       <c r="B43" t="n">
-        <v>132250</v>
+        <v>163040</v>
       </c>
       <c r="C43" t="s">
         <v>381</v>
@@ -6372,7 +6372,7 @@
         <v>12823</v>
       </c>
       <c r="B44" t="n">
-        <v>132251</v>
+        <v>163041</v>
       </c>
       <c r="C44" t="s">
         <v>388</v>
@@ -6437,7 +6437,7 @@
         <v>12823</v>
       </c>
       <c r="B45" t="n">
-        <v>132252</v>
+        <v>163042</v>
       </c>
       <c r="C45" t="s">
         <v>394</v>
@@ -6508,7 +6508,7 @@
         <v>12823</v>
       </c>
       <c r="B46" t="n">
-        <v>132253</v>
+        <v>163043</v>
       </c>
       <c r="C46" t="s">
         <v>404</v>
@@ -6575,7 +6575,7 @@
         <v>12823</v>
       </c>
       <c r="B47" t="n">
-        <v>132254</v>
+        <v>163044</v>
       </c>
       <c r="C47" t="s">
         <v>411</v>
@@ -6646,7 +6646,7 @@
         <v>12823</v>
       </c>
       <c r="B48" t="n">
-        <v>132255</v>
+        <v>163045</v>
       </c>
       <c r="C48" t="s">
         <v>421</v>
@@ -6711,7 +6711,7 @@
         <v>12823</v>
       </c>
       <c r="B49" t="n">
-        <v>132256</v>
+        <v>163046</v>
       </c>
       <c r="C49" t="s">
         <v>428</v>
@@ -6778,7 +6778,7 @@
         <v>12823</v>
       </c>
       <c r="B50" t="n">
-        <v>132257</v>
+        <v>163047</v>
       </c>
       <c r="C50" t="s">
         <v>434</v>
@@ -6987,7 +6987,7 @@
         <v>12823</v>
       </c>
       <c r="B53" t="n">
-        <v>132258</v>
+        <v>163048</v>
       </c>
       <c r="C53" t="s">
         <v>459</v>
@@ -7058,7 +7058,7 @@
         <v>12823</v>
       </c>
       <c r="B54" t="n">
-        <v>132259</v>
+        <v>163049</v>
       </c>
       <c r="C54" t="s">
         <v>469</v>
@@ -7129,7 +7129,7 @@
         <v>12823</v>
       </c>
       <c r="B55" t="n">
-        <v>132260</v>
+        <v>163050</v>
       </c>
       <c r="C55" t="s">
         <v>479</v>
@@ -7275,7 +7275,7 @@
         <v>12823</v>
       </c>
       <c r="B57" t="n">
-        <v>132261</v>
+        <v>163051</v>
       </c>
       <c r="C57" t="s">
         <v>498</v>
@@ -7336,7 +7336,7 @@
         <v>12823</v>
       </c>
       <c r="B58" t="n">
-        <v>132262</v>
+        <v>163052</v>
       </c>
       <c r="C58" t="s">
         <v>505</v>
@@ -7407,7 +7407,7 @@
         <v>12823</v>
       </c>
       <c r="B59" t="n">
-        <v>132263</v>
+        <v>163053</v>
       </c>
       <c r="C59" t="s">
         <v>515</v>
@@ -7476,7 +7476,7 @@
         <v>12823</v>
       </c>
       <c r="B60" t="n">
-        <v>132264</v>
+        <v>163054</v>
       </c>
       <c r="C60" t="s">
         <v>524</v>
@@ -7545,7 +7545,7 @@
         <v>12823</v>
       </c>
       <c r="B61" t="n">
-        <v>132265</v>
+        <v>163055</v>
       </c>
       <c r="C61" t="s">
         <v>534</v>
@@ -7616,7 +7616,7 @@
         <v>12823</v>
       </c>
       <c r="B62" t="n">
-        <v>132266</v>
+        <v>163056</v>
       </c>
       <c r="C62" t="s">
         <v>541</v>
@@ -7825,7 +7825,7 @@
         <v>12823</v>
       </c>
       <c r="B65" t="n">
-        <v>132267</v>
+        <v>163057</v>
       </c>
       <c r="C65" t="s">
         <v>560</v>
@@ -7957,7 +7957,7 @@
         <v>12823</v>
       </c>
       <c r="B67" t="n">
-        <v>132268</v>
+        <v>163058</v>
       </c>
       <c r="C67" t="s">
         <v>573</v>
@@ -8245,7 +8245,7 @@
         <v>12823</v>
       </c>
       <c r="B71" t="n">
-        <v>132269</v>
+        <v>163059</v>
       </c>
       <c r="C71" t="s">
         <v>604</v>
@@ -8395,7 +8395,7 @@
         <v>12823</v>
       </c>
       <c r="B73" t="n">
-        <v>132270</v>
+        <v>163060</v>
       </c>
       <c r="C73" t="s">
         <v>621</v>
@@ -8460,7 +8460,7 @@
         <v>12823</v>
       </c>
       <c r="B74" t="n">
-        <v>132271</v>
+        <v>163061</v>
       </c>
       <c r="C74" t="s">
         <v>630</v>
@@ -8535,7 +8535,7 @@
         <v>12823</v>
       </c>
       <c r="B75" t="n">
-        <v>132272</v>
+        <v>163062</v>
       </c>
       <c r="C75" t="s">
         <v>639</v>
@@ -8685,7 +8685,7 @@
         <v>12823</v>
       </c>
       <c r="B77" t="n">
-        <v>132273</v>
+        <v>163063</v>
       </c>
       <c r="C77" t="s">
         <v>655</v>
@@ -8827,7 +8827,7 @@
         <v>12823</v>
       </c>
       <c r="B79" t="n">
-        <v>132274</v>
+        <v>163064</v>
       </c>
       <c r="C79" t="s">
         <v>669</v>
@@ -8894,7 +8894,7 @@
         <v>12823</v>
       </c>
       <c r="B80" t="n">
-        <v>132275</v>
+        <v>163065</v>
       </c>
       <c r="C80" t="s">
         <v>674</v>
@@ -8965,7 +8965,7 @@
         <v>12823</v>
       </c>
       <c r="B81" t="n">
-        <v>132276</v>
+        <v>163066</v>
       </c>
       <c r="C81" t="s">
         <v>681</v>
@@ -9036,7 +9036,7 @@
         <v>12823</v>
       </c>
       <c r="B82" t="n">
-        <v>132277</v>
+        <v>163067</v>
       </c>
       <c r="C82" t="s">
         <v>687</v>
@@ -9097,7 +9097,7 @@
         <v>12823</v>
       </c>
       <c r="B83" t="n">
-        <v>132278</v>
+        <v>163068</v>
       </c>
       <c r="C83" t="s">
         <v>693</v>
@@ -9168,7 +9168,7 @@
         <v>12823</v>
       </c>
       <c r="B84" t="n">
-        <v>132279</v>
+        <v>163069</v>
       </c>
       <c r="C84" t="s">
         <v>700</v>
@@ -9239,7 +9239,7 @@
         <v>12823</v>
       </c>
       <c r="B85" t="n">
-        <v>132280</v>
+        <v>163070</v>
       </c>
       <c r="C85" t="s">
         <v>708</v>
@@ -9381,7 +9381,7 @@
         <v>12823</v>
       </c>
       <c r="B87" t="n">
-        <v>132281</v>
+        <v>163071</v>
       </c>
       <c r="C87" t="s">
         <v>720</v>
@@ -9586,7 +9586,7 @@
         <v>12823</v>
       </c>
       <c r="B90" t="n">
-        <v>132282</v>
+        <v>163072</v>
       </c>
       <c r="C90" t="s">
         <v>742</v>
@@ -9647,7 +9647,7 @@
         <v>12823</v>
       </c>
       <c r="B91" t="n">
-        <v>132283</v>
+        <v>163073</v>
       </c>
       <c r="C91" t="s">
         <v>750</v>
@@ -9718,7 +9718,7 @@
         <v>12823</v>
       </c>
       <c r="B92" t="n">
-        <v>132284</v>
+        <v>163074</v>
       </c>
       <c r="C92" t="s">
         <v>757</v>
@@ -9793,7 +9793,7 @@
         <v>12823</v>
       </c>
       <c r="B93" t="n">
-        <v>132285</v>
+        <v>163075</v>
       </c>
       <c r="C93" t="s">
         <v>766</v>
@@ -9864,7 +9864,7 @@
         <v>12823</v>
       </c>
       <c r="B94" t="n">
-        <v>132286</v>
+        <v>163076</v>
       </c>
       <c r="C94" t="s">
         <v>773</v>
@@ -9939,7 +9939,7 @@
         <v>12823</v>
       </c>
       <c r="B95" t="n">
-        <v>132287</v>
+        <v>163077</v>
       </c>
       <c r="C95" t="s">
         <v>780</v>
@@ -10014,7 +10014,7 @@
         <v>12823</v>
       </c>
       <c r="B96" t="n">
-        <v>132288</v>
+        <v>163078</v>
       </c>
       <c r="C96" t="s">
         <v>790</v>
@@ -10314,7 +10314,7 @@
         <v>12823</v>
       </c>
       <c r="B100" t="n">
-        <v>132289</v>
+        <v>163079</v>
       </c>
       <c r="C100" t="s">
         <v>822</v>
@@ -10464,7 +10464,7 @@
         <v>12823</v>
       </c>
       <c r="B102" t="n">
-        <v>132290</v>
+        <v>163080</v>
       </c>
       <c r="C102" t="s">
         <v>840</v>
@@ -10539,7 +10539,7 @@
         <v>12823</v>
       </c>
       <c r="B103" t="n">
-        <v>132291</v>
+        <v>163081</v>
       </c>
       <c r="C103" t="s">
         <v>850</v>
@@ -10606,7 +10606,7 @@
         <v>12823</v>
       </c>
       <c r="B104" t="n">
-        <v>132292</v>
+        <v>163082</v>
       </c>
       <c r="C104" t="s">
         <v>857</v>
@@ -10671,7 +10671,7 @@
         <v>12823</v>
       </c>
       <c r="B105" t="n">
-        <v>132293</v>
+        <v>163083</v>
       </c>
       <c r="C105" t="s">
         <v>867</v>
@@ -10817,7 +10817,7 @@
         <v>12823</v>
       </c>
       <c r="B107" t="n">
-        <v>132294</v>
+        <v>163084</v>
       </c>
       <c r="C107" t="s">
         <v>882</v>
@@ -10888,7 +10888,7 @@
         <v>12823</v>
       </c>
       <c r="B108" t="n">
-        <v>132295</v>
+        <v>163085</v>
       </c>
       <c r="C108" t="s">
         <v>890</v>
@@ -10959,7 +10959,7 @@
         <v>12823</v>
       </c>
       <c r="B109" t="n">
-        <v>132296</v>
+        <v>163086</v>
       </c>
       <c r="C109" t="s">
         <v>896</v>
@@ -11026,7 +11026,7 @@
         <v>12823</v>
       </c>
       <c r="B110" t="n">
-        <v>132297</v>
+        <v>163087</v>
       </c>
       <c r="C110" t="s">
         <v>903</v>
@@ -11164,7 +11164,7 @@
         <v>12823</v>
       </c>
       <c r="B112" t="n">
-        <v>132298</v>
+        <v>163088</v>
       </c>
       <c r="C112" t="s">
         <v>915</v>
@@ -11235,7 +11235,7 @@
         <v>12823</v>
       </c>
       <c r="B113" t="n">
-        <v>132299</v>
+        <v>163089</v>
       </c>
       <c r="C113" t="s">
         <v>923</v>
@@ -11306,7 +11306,7 @@
         <v>12823</v>
       </c>
       <c r="B114" t="n">
-        <v>132300</v>
+        <v>163090</v>
       </c>
       <c r="C114" t="s">
         <v>930</v>
@@ -11442,7 +11442,7 @@
         <v>12823</v>
       </c>
       <c r="B116" t="n">
-        <v>132301</v>
+        <v>163091</v>
       </c>
       <c r="C116" t="s">
         <v>943</v>
@@ -11509,7 +11509,7 @@
         <v>12823</v>
       </c>
       <c r="B117" t="n">
-        <v>132302</v>
+        <v>163092</v>
       </c>
       <c r="C117" t="s">
         <v>949</v>
@@ -11580,7 +11580,7 @@
         <v>12823</v>
       </c>
       <c r="B118" t="n">
-        <v>132303</v>
+        <v>163093</v>
       </c>
       <c r="C118" t="s">
         <v>957</v>
@@ -11651,7 +11651,7 @@
         <v>12823</v>
       </c>
       <c r="B119" t="n">
-        <v>132304</v>
+        <v>163094</v>
       </c>
       <c r="C119" t="s">
         <v>964</v>
@@ -11722,7 +11722,7 @@
         <v>12823</v>
       </c>
       <c r="B120" t="n">
-        <v>132305</v>
+        <v>163095</v>
       </c>
       <c r="C120" t="s">
         <v>971</v>
@@ -11864,7 +11864,7 @@
         <v>12823</v>
       </c>
       <c r="B122" t="n">
-        <v>132306</v>
+        <v>163096</v>
       </c>
       <c r="C122" t="s">
         <v>986</v>
@@ -11933,7 +11933,7 @@
         <v>12823</v>
       </c>
       <c r="B123" t="n">
-        <v>132307</v>
+        <v>163097</v>
       </c>
       <c r="C123" t="s">
         <v>994</v>
